--- a/extracteds/Cases/Compra fechamento e venda com 0.80% (Exceto Sexta).xlsx
+++ b/extracteds/Cases/Compra fechamento e venda com 0.80% (Exceto Sexta).xlsx
@@ -68,7 +68,8 @@
   <si>
     <t xml:space="preserve">Comprar no fechamento de todos os dias(exceto as sexta-feiras) e vender no dia seguinte com 0.80% de gain.
 Se o stop-gain não for atingido, vender no fechamento!
-Período de teste: 15/12/2021 a 20/06/2022</t>
+Período de teste: 15/12/2021 a 20/06/2022
+Alterar: caseCompraFechamentoNegativo.py</t>
   </si>
   <si>
     <t>SUZB3</t>
@@ -1462,7 +1463,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -11009,7 +11010,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/extracteds/Cases/Compra fechamento e venda com 0.80% (Exceto Sexta).xlsx
+++ b/extracteds/Cases/Compra fechamento e venda com 0.80% (Exceto Sexta).xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Ativo</t>
   </si>
@@ -57,13 +57,16 @@
     <t xml:space="preserve">Volume Med</t>
   </si>
   <si>
-    <t>BLUT4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-24 10:05:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-27 10:05:00</t>
+    <t>Stop_loss</t>
+  </si>
+  <si>
+    <t>CASH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-17 10:10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-28 10:10:00</t>
   </si>
   <si>
     <r>
@@ -95,368 +98,194 @@
       <t xml:space="preserve"> com 0.80% de gain(Vender no leilão de abertura poderá potencializar os lucros).
 Se o stop-gain não for atingido, vender no fechamento!
 Período de teste: 15/12/2021 a 20/06/2022
-Alterar: caseCompraFechamentoNegativo.py</t>
+Alterar: caseCompraFechamentoNegativo(StopLoss).py</t>
     </r>
   </si>
   <si>
+    <t>CIEL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-24 10:05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-18 10:05:00</t>
+  </si>
+  <si>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-25 10:05:00</t>
+  </si>
+  <si>
+    <t>DMMO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-01 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-17 10:10:00</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-07 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-12 10:05:00</t>
+  </si>
+  <si>
+    <t>ENAT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-17 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-17 10:00:00</t>
+  </si>
+  <si>
+    <t>GFSA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-05 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-12 11:00:00</t>
+  </si>
+  <si>
+    <t>MYPK3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-14 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-10 10:05:00</t>
+  </si>
+  <si>
+    <t>NEXP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-24 10:10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-02 10:05:00</t>
+  </si>
+  <si>
+    <t>NUBR33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-03 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-17 10:15:00</t>
+  </si>
+  <si>
+    <t>PETR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-24 10:05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-10 10:05:00</t>
+  </si>
+  <si>
+    <t>PETR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-06 10:05:00</t>
+  </si>
+  <si>
+    <t>PRIO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-05 10:10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-10 10:10:00</t>
+  </si>
+  <si>
+    <t>RECV3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-17 10:05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-04 10:05:00</t>
+  </si>
+  <si>
+    <t>RRRP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-05 10:05:00</t>
+  </si>
+  <si>
+    <t>SLCE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-12 10:05:00</t>
+  </si>
+  <si>
+    <t>SYNE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-25 10:10:00</t>
+  </si>
+  <si>
+    <t>TCSA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-24 10:00:00</t>
+  </si>
+  <si>
+    <t>TECN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-09 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-30 10:10:00</t>
+  </si>
+  <si>
     <t>TRAD3</t>
   </si>
   <si>
     <t xml:space="preserve">2022-01-03 10:00:00</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-02-25 10:10:00</t>
-  </si>
-  <si>
-    <t>DMMO3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-06 10:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-17 10:10:00</t>
+    <t>VIIA3</t>
   </si>
   <si>
     <t>VIVR3</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-03-31 10:05:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022-03-29 10:10:00</t>
   </si>
   <si>
+    <t>WEST3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-20 10:10:00</t>
+  </si>
+  <si>
+    <t>INEP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-26 10:20:00</t>
+  </si>
+  <si>
     <t>LUPA3</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-12-17 10:00:00</t>
+    <t xml:space="preserve">2022-01-11 10:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">2022-03-08 10:05:00</t>
   </si>
   <si>
-    <t>NEXP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-11 10:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-02 10:05:00</t>
-  </si>
-  <si>
-    <t>WEST3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-03 10:05:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-20 10:10:00</t>
-  </si>
-  <si>
-    <t>TCSA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-05 10:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-01 10:00:00</t>
-  </si>
-  <si>
-    <t>TECN3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-09 10:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-30 10:10:00</t>
-  </si>
-  <si>
-    <t>COGN3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-20 10:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-25 10:05:00</t>
-  </si>
-  <si>
     <t>OIBR3</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-06-10 10:10:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022-01-28 10:20:00</t>
-  </si>
-  <si>
-    <t>BRIT3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-06 10:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-04 10:05:00</t>
-  </si>
-  <si>
-    <t>GFSA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-05 10:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-12 11:00:00</t>
-  </si>
-  <si>
-    <t>PRIO3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-05 10:10:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-10 10:10:00</t>
-  </si>
-  <si>
-    <t>DASA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-03 10:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-04 10:05:00</t>
-  </si>
-  <si>
-    <t>NTCO3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-06 10:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-10 10:05:00</t>
-  </si>
-  <si>
-    <t>ENJU3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-25 10:10:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-11 10:10:00</t>
-  </si>
-  <si>
-    <t>NGRD3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-16 10:10:00</t>
-  </si>
-  <si>
-    <t>FHER3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-05 10:10:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-17 10:15:00</t>
-  </si>
-  <si>
-    <t>MGLU3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-12 10:05:00</t>
-  </si>
-  <si>
-    <t>SLCE3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-15 10:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-12 10:05:00</t>
-  </si>
-  <si>
-    <t>CSED3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-10 10:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-27 10:05:00</t>
-  </si>
-  <si>
-    <t>NUBR33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-17 10:15:00</t>
-  </si>
-  <si>
-    <t>PLPL3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-11 10:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-01 10:10:00</t>
-  </si>
-  <si>
-    <t>VIIA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-08 10:05:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-10 10:05:00</t>
-  </si>
-  <si>
-    <t>CASH3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-06 10:05:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-28 10:10:00</t>
-  </si>
-  <si>
-    <t>RECV3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-04 10:05:00</t>
-  </si>
-  <si>
-    <t>MYPK3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-04 10:00:00</t>
-  </si>
-  <si>
-    <t>PETR4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-27 10:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-06 10:05:00</t>
-  </si>
-  <si>
-    <t>PETR3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-17 10:15:00</t>
-  </si>
-  <si>
-    <t>RRRP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-23 10:05:00</t>
-  </si>
-  <si>
-    <t>CIEL3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-18 10:05:00</t>
-  </si>
-  <si>
-    <t>ENEV3</t>
-  </si>
-  <si>
-    <t>CVCB3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-06 10:10:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-16 10:20:00</t>
-  </si>
-  <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-10 10:05:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-12 10:05:00</t>
-  </si>
-  <si>
-    <t>GETT11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-21 10:05:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-20 10:15:00</t>
-  </si>
-  <si>
-    <t>VULC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-07 10:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-31 10:00:00</t>
-  </si>
-  <si>
-    <t>LREN3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-26 10:10:00</t>
-  </si>
-  <si>
-    <t>LAVV3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-12 10:00:00</t>
-  </si>
-  <si>
-    <t>SYNE3</t>
-  </si>
-  <si>
-    <t>HYPE3</t>
-  </si>
-  <si>
-    <t>RANI3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-08 10:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-29 10:05:00</t>
-  </si>
-  <si>
-    <t>RAPT4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-26 10:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-04 10:00:00</t>
-  </si>
-  <si>
-    <t>BMGB4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-21 10:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-09 10:00:00</t>
-  </si>
-  <si>
-    <t>JSLG3</t>
-  </si>
-  <si>
-    <t>BRML3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-18 10:10:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-19 10:05:00</t>
-  </si>
-  <si>
-    <t>INEP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-14 10:05:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-26 10:20:00</t>
   </si>
 </sst>
 </file>
@@ -997,52 +826,58 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2">
         <v>102</v>
       </c>
       <c r="D2" s="2">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3">
-        <v>0.9509803921568627</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="G2" s="3">
-        <v>1.429066666615453</v>
+        <v>0.39008986028625831</v>
       </c>
       <c r="H2" s="3">
-        <v>1.4010457515837774e-002</v>
+        <v>3.8244103949633167e-003</v>
       </c>
       <c r="I2" s="3">
-        <v>-8.8235294117647078e-002</v>
+        <v>-6.6166666666666651e-002</v>
       </c>
       <c r="J2" s="3">
-        <v>0.1153846153846152</v>
+        <v>4.4067796610169463e-002</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M2" s="2">
-        <v>136600</v>
+        <v>7454500</v>
       </c>
       <c r="N2" s="2">
-        <v>654255.5555555555</v>
+        <v>38302714.173228346</v>
+      </c>
+      <c r="O2" s="3">
+        <v>-6.6166666666666651e-002</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
@@ -1057,46 +892,49 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2">
         <v>102</v>
       </c>
       <c r="D3" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3">
-        <v>0.93137254901960786</v>
+        <v>0.80392156862745101</v>
       </c>
       <c r="G3" s="3">
-        <v>0.60838437231140352</v>
+        <v>0.37175590875431902</v>
       </c>
       <c r="H3" s="3">
-        <v>5.9645526697196423e-003</v>
+        <v>3.6446657721011669e-003</v>
       </c>
       <c r="I3" s="3">
-        <v>-8.1939799331103735e-002</v>
+        <v>-5.7639534883720922e-002</v>
       </c>
       <c r="J3" s="3">
-        <v>3.5046728971962482e-002</v>
+        <v>6.800000000000006e-002</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" s="2">
-        <v>907700</v>
+        <v>4614900</v>
       </c>
       <c r="N3" s="2">
-        <v>2567502.3809523811</v>
+        <v>32772901.574803151</v>
+      </c>
+      <c r="O3" s="3">
+        <v>-5.7639534883720922e-002</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -1112,46 +950,49 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C4" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D4" s="2">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3">
-        <v>0.93000000000000005</v>
+        <v>0.87254901960784315</v>
       </c>
       <c r="G4" s="3">
-        <v>0.78969298072600813</v>
+        <v>0.53111673343399157</v>
       </c>
       <c r="H4" s="3">
-        <v>7.8969298072600821e-003</v>
+        <v>5.2070267983724662e-003</v>
       </c>
       <c r="I4" s="3">
-        <v>-0.11176470588235288</v>
+        <v>-8.3533613445378074e-002</v>
       </c>
       <c r="J4" s="3">
-        <v>5.9829059829059839e-002</v>
+        <v>5.6277056277056259e-002</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M4" s="2">
-        <v>1013600</v>
+        <v>7426200</v>
       </c>
       <c r="N4" s="2">
-        <v>20533882.258064516</v>
+        <v>34852972.44094488</v>
+      </c>
+      <c r="O4" s="3">
+        <v>-8.3533613445378074e-002</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
@@ -1170,31 +1011,31 @@
         <v>24</v>
       </c>
       <c r="B5" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D5" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="3">
-        <v>0.91000000000000003</v>
+        <v>0.92156862745098034</v>
       </c>
       <c r="G5" s="3">
-        <v>0.63169361377089883</v>
+        <v>0.72309829428190242</v>
       </c>
       <c r="H5" s="3">
-        <v>6.3169361377089887e-003</v>
+        <v>7.0891989635480631e-003</v>
       </c>
       <c r="I5" s="3">
-        <v>-8.3969465648854991e-002</v>
+        <v>-7.7625000000000111e-002</v>
       </c>
       <c r="J5" s="3">
-        <v>3.007518796992481e-002</v>
+        <v>5.9829059829059839e-002</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>25</v>
@@ -1203,10 +1044,13 @@
         <v>26</v>
       </c>
       <c r="M5" s="2">
-        <v>1159800</v>
+        <v>1013600</v>
       </c>
       <c r="N5" s="2">
-        <v>4007595.1612903224</v>
+        <v>20354196.062992126</v>
+      </c>
+      <c r="O5" s="3">
+        <v>-7.7625000000000111e-002</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -1225,31 +1069,31 @@
         <v>27</v>
       </c>
       <c r="B6" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C6" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F6" s="3">
-        <v>0.90000000000000002</v>
+        <v>0.80392156862745101</v>
       </c>
       <c r="G6" s="3">
-        <v>0.51057018524557574</v>
+        <v>0.38750724060676345</v>
       </c>
       <c r="H6" s="3">
-        <v>5.1057018524557577e-003</v>
+        <v>3.7990905941839553e-003</v>
       </c>
       <c r="I6" s="3">
-        <v>-5.5932203389830515e-002</v>
+        <v>-3.6786380113930595e-002</v>
       </c>
       <c r="J6" s="3">
-        <v>3.3755274261603407e-002</v>
+        <v>3.47947112038971e-002</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>28</v>
@@ -1258,10 +1102,13 @@
         <v>29</v>
       </c>
       <c r="M6" s="2">
-        <v>236800</v>
+        <v>741300</v>
       </c>
       <c r="N6" s="2">
-        <v>1137571.7741935484</v>
+        <v>3606908.6614173227</v>
+      </c>
+      <c r="O6" s="3">
+        <v>-3.6786380113930595e-002</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
@@ -1280,31 +1127,31 @@
         <v>30</v>
       </c>
       <c r="B7" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2">
         <v>102</v>
       </c>
       <c r="D7" s="2">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3">
-        <v>0.89215686274509809</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="G7" s="3">
-        <v>0.77262700985913035</v>
+        <v>0.3237959677572757</v>
       </c>
       <c r="H7" s="3">
-        <v>7.5747746064620623e-003</v>
+        <v>3.1744702721301539e-003</v>
       </c>
       <c r="I7" s="3">
-        <v>-6.1403508771929904e-002</v>
+        <v>-3.396528129751647e-002</v>
       </c>
       <c r="J7" s="3">
-        <v>6.5040650406504197e-002</v>
+        <v>2.6740665993945534e-002</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>31</v>
@@ -1313,10 +1160,13 @@
         <v>32</v>
       </c>
       <c r="M7" s="2">
-        <v>229300</v>
+        <v>544200</v>
       </c>
       <c r="N7" s="2">
-        <v>1264538.888888889</v>
+        <v>2115507.874015748</v>
+      </c>
+      <c r="O7" s="3">
+        <v>-3.396528129751647e-002</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
@@ -1335,31 +1185,31 @@
         <v>33</v>
       </c>
       <c r="B8" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E8" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F8" s="3">
-        <v>0.89215686274509809</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="G8" s="3">
-        <v>0.67291255913556913</v>
+        <v>0.33156340563166214</v>
       </c>
       <c r="H8" s="3">
-        <v>6.5971819523095009e-003</v>
+        <v>3.3156340563166215e-003</v>
       </c>
       <c r="I8" s="3">
-        <v>-6.719367588932823e-002</v>
+        <v>-7.5586956521739135e-002</v>
       </c>
       <c r="J8" s="3">
-        <v>3.114186851211076e-002</v>
+        <v>3.7433155080213831e-002</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>34</v>
@@ -1368,10 +1218,13 @@
         <v>35</v>
       </c>
       <c r="M8" s="2">
-        <v>193500</v>
+        <v>2464100</v>
       </c>
       <c r="N8" s="2">
-        <v>868307.14285714284</v>
+        <v>6698545.1612903224</v>
+      </c>
+      <c r="O8" s="3">
+        <v>-7.5586956521739135e-002</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -1390,31 +1243,31 @@
         <v>36</v>
       </c>
       <c r="B9" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D9" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3">
-        <v>0.89000000000000001</v>
+        <v>0.81372549019607843</v>
       </c>
       <c r="G9" s="3">
-        <v>0.37642240148513867</v>
+        <v>0.35312816080581</v>
       </c>
       <c r="H9" s="3">
-        <v>3.7642240148513867e-003</v>
+        <v>3.4620407922138236e-003</v>
       </c>
       <c r="I9" s="3">
-        <v>-7.5907590759075938e-002</v>
+        <v>-2.8271929824561448e-002</v>
       </c>
       <c r="J9" s="3">
-        <v>2.4930747922437657e-002</v>
+        <v>4.146730462519943e-002</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>37</v>
@@ -1423,10 +1276,13 @@
         <v>38</v>
       </c>
       <c r="M9" s="2">
-        <v>192300</v>
+        <v>232000</v>
       </c>
       <c r="N9" s="2">
-        <v>609450.80645161285</v>
+        <v>1550493.7007874015</v>
+      </c>
+      <c r="O9" s="3">
+        <v>-2.8271929824561448e-002</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
@@ -1445,31 +1301,31 @@
         <v>39</v>
       </c>
       <c r="B10" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C10" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="3">
-        <v>0.89000000000000001</v>
+        <v>0.88235294117647056</v>
       </c>
       <c r="G10" s="3">
-        <v>0.53925734944818249</v>
+        <v>0.71507690778695565</v>
       </c>
       <c r="H10" s="3">
-        <v>5.3925734944818247e-003</v>
+        <v>7.0105579194799572e-003</v>
       </c>
       <c r="I10" s="3">
-        <v>-8.273381294964044e-002</v>
+        <v>-5.0000000000000044e-002</v>
       </c>
       <c r="J10" s="3">
-        <v>3.2051282051282159e-002</v>
+        <v>6.5040650406504197e-002</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>40</v>
@@ -1478,10 +1334,13 @@
         <v>41</v>
       </c>
       <c r="M10" s="2">
-        <v>210600</v>
+        <v>229300</v>
       </c>
       <c r="N10" s="2">
-        <v>1142588.7096774194</v>
+        <v>1256992.125984252</v>
+      </c>
+      <c r="O10" s="3">
+        <v>-3.7595238095238181e-002</v>
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
@@ -1500,31 +1359,31 @@
         <v>42</v>
       </c>
       <c r="B11" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C11" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D11" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E11" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F11" s="3">
-        <v>0.88</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G11" s="3">
-        <v>0.61612433972854186</v>
+        <v>0.41601398050641003</v>
       </c>
       <c r="H11" s="3">
-        <v>6.1612433972854184e-003</v>
+        <v>4.0785684363373528e-003</v>
       </c>
       <c r="I11" s="3">
-        <v>-7.3170731707317027e-002</v>
+        <v>-0.10785913312693501</v>
       </c>
       <c r="J11" s="3">
-        <v>5.6277056277056259e-002</v>
+        <v>0.10684931506849327</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>43</v>
@@ -1533,10 +1392,13 @@
         <v>44</v>
       </c>
       <c r="M11" s="2">
-        <v>11684000</v>
+        <v>696225</v>
       </c>
       <c r="N11" s="2">
-        <v>35036931.451612905</v>
+        <v>6642299.9055118114</v>
+      </c>
+      <c r="O11" s="3">
+        <v>-0.10785913312693501</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
@@ -1555,31 +1417,31 @@
         <v>45</v>
       </c>
       <c r="B12" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C12" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D12" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F12" s="3">
-        <v>0.88</v>
+        <v>0.82075471698113212</v>
       </c>
       <c r="G12" s="3">
-        <v>0.59313822894065538</v>
+        <v>0.41434957547359719</v>
       </c>
       <c r="H12" s="3">
-        <v>5.9313822894065541e-003</v>
+        <v>3.908958259184879e-003</v>
       </c>
       <c r="I12" s="3">
-        <v>-8.3333333333333259e-002</v>
+        <v>-3.9819260096017994e-002</v>
       </c>
       <c r="J12" s="3">
-        <v>5.9405940594059459e-002</v>
+        <v>4.3463263194204904e-002</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>46</v>
@@ -1588,10 +1450,13 @@
         <v>47</v>
       </c>
       <c r="M12" s="2">
-        <v>24885500</v>
+        <v>6224000</v>
       </c>
       <c r="N12" s="2">
-        <v>81054071.774193555</v>
+        <v>18183554.580152672</v>
+      </c>
+      <c r="O12" s="3">
+        <v>-2.728707733511887e-002</v>
       </c>
     </row>
     <row r="13">
@@ -1599,1584 +1464,1032 @@
         <v>48</v>
       </c>
       <c r="B13" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2">
         <v>102</v>
       </c>
       <c r="D13" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E13" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F13" s="3">
-        <v>0.87254901960784315</v>
+        <v>0.81372549019607843</v>
       </c>
       <c r="G13" s="3">
-        <v>0.74405464579099612</v>
+        <v>0.40239276850603417</v>
       </c>
       <c r="H13" s="3">
-        <v>7.2946533901078053e-003</v>
+        <v>3.9450271422160213e-003</v>
       </c>
       <c r="I13" s="3">
-        <v>-8.2222222222222197e-002</v>
+        <v>-4.1474654377880116e-002</v>
       </c>
       <c r="J13" s="3">
-        <v>5.4919908466819267e-002</v>
+        <v>2.1195274496177863e-002</v>
       </c>
       <c r="K13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="M13" s="2">
-        <v>188900</v>
+        <v>28713600</v>
       </c>
       <c r="N13" s="2">
-        <v>627026.19047619053</v>
+        <v>73272579.527559057</v>
+      </c>
+      <c r="O13" s="3">
+        <v>-3.2104925424904562e-002</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C14" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D14" s="2">
         <v>87</v>
       </c>
       <c r="E14" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F14" s="3">
-        <v>0.87</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="G14" s="3">
-        <v>0.41506164299946469</v>
+        <v>0.61113937113690064</v>
       </c>
       <c r="H14" s="3">
-        <v>4.1506164299946469e-003</v>
+        <v>5.9915624621264766e-003</v>
       </c>
       <c r="I14" s="3">
-        <v>-7.5675675675675791e-002</v>
+        <v>-5.5102716468590829e-002</v>
       </c>
       <c r="J14" s="3">
-        <v>3.7433155080213831e-002</v>
+        <v>3.5577658760520325e-002</v>
       </c>
       <c r="K14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="M14" s="2">
-        <v>2464100</v>
+        <v>9086300</v>
       </c>
       <c r="N14" s="2">
-        <v>6698545.1612903224</v>
+        <v>20583591.338582676</v>
+      </c>
+      <c r="O14" s="3">
+        <v>-5.5102716468590829e-002</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2">
+        <v>127</v>
+      </c>
+      <c r="C15" s="2">
+        <v>102</v>
+      </c>
+      <c r="D15" s="2">
+        <v>84</v>
+      </c>
+      <c r="E15" s="2">
+        <v>18</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.34222315428824418</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3.3551289636102369e-003</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-4.1348844472204938e-002</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3.5322777101096214e-002</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="2">
-        <v>124</v>
-      </c>
-      <c r="C15" s="2">
-        <v>100</v>
-      </c>
-      <c r="D15" s="2">
-        <v>87</v>
-      </c>
-      <c r="E15" s="2">
-        <v>13</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.87</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.66070231129949375</v>
-      </c>
-      <c r="H15" s="3">
-        <v>6.6070231129949373e-003</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-0.10762548262548266</v>
-      </c>
-      <c r="J15" s="3">
-        <v>3.5577658760520325e-002</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="M15" s="2">
-        <v>9086300</v>
+        <v>219600</v>
       </c>
       <c r="N15" s="2">
-        <v>20540425</v>
+        <v>1080868.5039370079</v>
+      </c>
+      <c r="O15" s="3">
+        <v>-4.1348844472204938e-002</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2">
+        <v>127</v>
+      </c>
+      <c r="C16" s="2">
+        <v>102</v>
+      </c>
+      <c r="D16" s="2">
+        <v>83</v>
+      </c>
+      <c r="E16" s="2">
+        <v>19</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.81372549019607843</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.44126980568686808</v>
+      </c>
+      <c r="H16" s="3">
+        <v>4.32617456555753e-003</v>
+      </c>
+      <c r="I16" s="3">
+        <v>-5.0540775591673748e-002</v>
+      </c>
+      <c r="J16" s="3">
+        <v>4.4634377967711414e-002</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="2">
-        <v>124</v>
-      </c>
-      <c r="C16" s="2">
-        <v>100</v>
-      </c>
-      <c r="D16" s="2">
-        <v>86</v>
-      </c>
-      <c r="E16" s="2">
-        <v>14</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.85999999999999999</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.53726087052417537</v>
-      </c>
-      <c r="H16" s="3">
-        <v>5.372608705241754e-003</v>
-      </c>
-      <c r="I16" s="3">
-        <v>-7.4327405380756884e-002</v>
-      </c>
-      <c r="J16" s="3">
-        <v>3.076923076923066e-002</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="L16" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="M16" s="2">
-        <v>123600</v>
+        <v>760400</v>
       </c>
       <c r="N16" s="2">
-        <v>425038.70967741933</v>
+        <v>4209766.9291338585</v>
+      </c>
+      <c r="O16" s="3">
+        <v>-5.0540775591673748e-002</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C17" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2">
         <v>86</v>
       </c>
       <c r="E17" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F17" s="3">
-        <v>0.85999999999999999</v>
+        <v>0.84313725490196079</v>
       </c>
       <c r="G17" s="3">
-        <v>0.41548660233057699</v>
+        <v>0.44079632813011149</v>
       </c>
       <c r="H17" s="3">
-        <v>4.1548660233057698e-003</v>
+        <v>4.3215326287265833e-003</v>
       </c>
       <c r="I17" s="3">
-        <v>-7.258938244853741e-002</v>
+        <v>-2.0613243761996192e-002</v>
       </c>
       <c r="J17" s="3">
-        <v>6.3811922753988171e-002</v>
+        <v>2.8000000000000025e-002</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M17" s="2">
-        <v>2382900</v>
+        <v>488700</v>
       </c>
       <c r="N17" s="2">
-        <v>12193283.064516129</v>
+        <v>1796082.6771653544</v>
+      </c>
+      <c r="O17" s="3">
+        <v>-2.0613243761996192e-002</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B18" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C18" s="2">
         <v>102</v>
       </c>
       <c r="D18" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E18" s="2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="3">
-        <v>0.8529411764705882</v>
+        <v>0.77450980392156865</v>
       </c>
       <c r="G18" s="3">
-        <v>0.40470200609660761</v>
+        <v>0.37658247517523735</v>
       </c>
       <c r="H18" s="3">
-        <v>3.9676667264373295e-003</v>
+        <v>3.6919850507376212e-003</v>
       </c>
       <c r="I18" s="3">
-        <v>-8.3892617449664475e-002</v>
+        <v>-2.4009803921568651e-002</v>
       </c>
       <c r="J18" s="3">
-        <v>6.4102564102564319e-002</v>
+        <v>7.986111111111116e-002</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M18" s="2">
-        <v>779000</v>
+        <v>103300</v>
       </c>
       <c r="N18" s="2">
-        <v>2678733.3333333335</v>
+        <v>1161411.8110236221</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-2.4009803921568651e-002</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B19" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C19" s="2">
         <v>102</v>
       </c>
       <c r="D19" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E19" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F19" s="3">
-        <v>0.8529411764705882</v>
+        <v>0.88235294117647056</v>
       </c>
       <c r="G19" s="3">
-        <v>0.35661428979597792</v>
+        <v>0.34387135848071898</v>
       </c>
       <c r="H19" s="3">
-        <v>3.4962185274115482e-003</v>
+        <v>3.3712878282423429e-003</v>
       </c>
       <c r="I19" s="3">
-        <v>-6.8592057761732828e-002</v>
+        <v>-6.2900576368875971e-002</v>
       </c>
       <c r="J19" s="3">
-        <v>4.2918454935622297e-002</v>
+        <v>2.4930747922437657e-002</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="M19" s="2">
-        <v>323200</v>
+        <v>123600</v>
       </c>
       <c r="N19" s="2">
-        <v>1398037.3015873015</v>
+        <v>601720.47244094487</v>
+      </c>
+      <c r="O19" s="3">
+        <v>-6.2900576368875971e-002</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B20" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C20" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D20" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E20" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F20" s="3">
-        <v>0.84999999999999998</v>
+        <v>0.88235294117647056</v>
       </c>
       <c r="G20" s="3">
-        <v>0.34608996619256327</v>
+        <v>0.47430913474805336</v>
       </c>
       <c r="H20" s="3">
-        <v>3.4608996619256327e-003</v>
+        <v>4.6500895563534646e-003</v>
       </c>
       <c r="I20" s="3">
-        <v>-0.10537634408602159</v>
+        <v>-7.7841013824884786e-002</v>
       </c>
       <c r="J20" s="3">
-        <v>8.3276912660798841e-002</v>
+        <v>3.2051282051282159e-002</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M20" s="2">
-        <v>187100</v>
+        <v>151400</v>
       </c>
       <c r="N20" s="2">
-        <v>1112011.2903225806</v>
+        <v>1127767.716535433</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-7.7841013824884786e-002</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C21" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D21" s="2">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E21" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F21" s="3">
-        <v>0.84999999999999998</v>
+        <v>0.92156862745098034</v>
       </c>
       <c r="G21" s="3">
-        <v>0.32978839133412868</v>
+        <v>0.5606502734640203</v>
       </c>
       <c r="H21" s="3">
-        <v>3.2978839133412869e-003</v>
+        <v>5.4965713084707876e-003</v>
       </c>
       <c r="I21" s="3">
-        <v>-0.10707070707070709</v>
+        <v>-6.2606796116504937e-002</v>
       </c>
       <c r="J21" s="3">
-        <v>3.9473684210526327e-002</v>
+        <v>3.5046728971962482e-002</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="M21" s="2">
-        <v>61801100</v>
+        <v>907700</v>
       </c>
       <c r="N21" s="2">
-        <v>130369149.19354838</v>
+        <v>2559045.6692913384</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-6.2606796116504937e-002</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B22" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C22" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D22" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F22" s="3">
-        <v>0.84999999999999998</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="G22" s="3">
-        <v>0.46706476038370753</v>
+        <v>0.35622807575407417</v>
       </c>
       <c r="H22" s="3">
-        <v>4.670647603837075e-003</v>
+        <v>3.4924321152360214e-003</v>
       </c>
       <c r="I22" s="3">
-        <v>-4.8104008667388953e-002</v>
+        <v>-7.8034031413612481e-002</v>
       </c>
       <c r="J22" s="3">
-        <v>2.8000000000000025e-002</v>
+        <v>4.8327137546468446e-002</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="M22" s="2">
-        <v>656400</v>
+        <v>19955500</v>
       </c>
       <c r="N22" s="2">
-        <v>1806935.4838709678</v>
+        <v>53162624.409448817</v>
+      </c>
+      <c r="O22" s="3">
+        <v>-7.8034031413612481e-002</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B23" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C23" s="2">
         <v>102</v>
       </c>
       <c r="D23" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E23" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F23" s="3">
-        <v>0.84313725490196079</v>
+        <v>0.89215686274509809</v>
       </c>
       <c r="G23" s="3">
-        <v>0.31331132708748871</v>
+        <v>0.67263130540160976</v>
       </c>
       <c r="H23" s="3">
-        <v>3.0716796773283205e-003</v>
+        <v>6.5944245627608802e-003</v>
       </c>
       <c r="I23" s="3">
-        <v>-7.7586206896551713e-002</v>
+        <v>-4.9019607843137303e-002</v>
       </c>
       <c r="J23" s="3">
-        <v>3.0874785591766596e-002</v>
+        <v>3.007518796992481e-002</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M23" s="2">
-        <v>125700</v>
+        <v>1159800</v>
       </c>
       <c r="N23" s="2">
-        <v>679165.07936507941</v>
+        <v>3955071.653543307</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-2.8626213592232996e-002</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B24" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C24" s="2">
         <v>102</v>
       </c>
       <c r="D24" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E24" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F24" s="3">
-        <v>0.84313725490196079</v>
+        <v>0.88235294117647056</v>
       </c>
       <c r="G24" s="3">
-        <v>0.538941732926288</v>
+        <v>0.59597202547287931</v>
       </c>
       <c r="H24" s="3">
-        <v>5.28374247966949e-003</v>
+        <v>5.8428629948321497e-003</v>
       </c>
       <c r="I24" s="3">
-        <v>-0.10079051383399207</v>
+        <v>-6.7067567567567654e-002</v>
       </c>
       <c r="J24" s="3">
-        <v>0.10684931506849327</v>
+        <v>3.114186851211076e-002</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="M24" s="2">
-        <v>696225</v>
+        <v>109300</v>
       </c>
       <c r="N24" s="2">
-        <v>6683000</v>
+        <v>862330.70866141736</v>
+      </c>
+      <c r="O24" s="3">
+        <v>-6.7067567567567654e-002</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B25" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C25" s="2">
         <v>102</v>
       </c>
       <c r="D25" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F25" s="3">
-        <v>0.84313725490196079</v>
+        <v>0.73529411764705888</v>
       </c>
       <c r="G25" s="3">
-        <v>0.53134804065630736</v>
+        <v>0.61647950966407361</v>
       </c>
       <c r="H25" s="3">
-        <v>5.2092945162383079e-003</v>
+        <v>6.0439167614124868e-003</v>
       </c>
       <c r="I25" s="3">
-        <v>-8.6206896551724088e-002</v>
+        <v>-5.2287581699346442e-002</v>
       </c>
       <c r="J25" s="3">
-        <v>3.4351145038167941e-002</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="M25" s="2">
-        <v>255700</v>
+        <v>243700</v>
       </c>
       <c r="N25" s="2">
-        <v>793150</v>
+        <v>1208396.062992126</v>
+      </c>
+      <c r="O25" s="3">
+        <v>-3.7093984962406068e-002</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B26" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C26" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D26" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E26" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F26" s="3">
-        <v>0.83999999999999997</v>
+        <v>0.88235294117647056</v>
       </c>
       <c r="G26" s="3">
-        <v>0.46659198308134553</v>
+        <v>0.36289041628179808</v>
       </c>
       <c r="H26" s="3">
-        <v>4.6659198308134555e-003</v>
+        <v>3.5577491792333146e-003</v>
       </c>
       <c r="I26" s="3">
-        <v>-7.9283887468030723e-002</v>
+        <v>-5.943150684931503e-002</v>
       </c>
       <c r="J26" s="3">
-        <v>4.8327137546468446e-002</v>
+        <v>3.3755274261603407e-002</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="M26" s="2">
-        <v>19955500</v>
+        <v>187800</v>
       </c>
       <c r="N26" s="2">
-        <v>52865253.225806452</v>
+        <v>1118434.6456692913</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-5.943150684931503e-002</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B27" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C27" s="2">
         <v>102</v>
       </c>
       <c r="D27" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E27" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F27" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.86274509803921573</v>
       </c>
       <c r="G27" s="3">
-        <v>0.49698169701702288</v>
+        <v>0.50066403926478475</v>
       </c>
       <c r="H27" s="3">
-        <v>4.8723695785982636e-003</v>
+        <v>4.9084709731841642e-003</v>
       </c>
       <c r="I27" s="3">
-        <v>-8.333333333333337e-002</v>
+        <v>-7.4500000000000066e-002</v>
       </c>
       <c r="J27" s="3">
-        <v>4.4067796610169463e-002</v>
+        <v>5.9405940594059459e-002</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="M27" s="2">
-        <v>10025700</v>
+        <v>22579400</v>
       </c>
       <c r="N27" s="2">
-        <v>38547541.269841269</v>
+        <v>80933092.913385823</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-7.4500000000000066e-002</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="2">
-        <v>126</v>
-      </c>
-      <c r="C28" s="2">
-        <v>102</v>
-      </c>
-      <c r="D28" s="2">
-        <v>85</v>
-      </c>
-      <c r="E28" s="2">
-        <v>17</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0.50181640446464071</v>
-      </c>
-      <c r="H28" s="3">
-        <v>4.9197686712219675e-003</v>
-      </c>
-      <c r="I28" s="3">
-        <v>-6.0312331717824463e-002</v>
-      </c>
-      <c r="J28" s="3">
-        <v>3.5322777101096214e-002</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M28" s="2">
-        <v>219600</v>
-      </c>
-      <c r="N28" s="2">
-        <v>1077441.2698412698</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="2">
-        <v>124</v>
-      </c>
-      <c r="C29" s="2">
-        <v>100</v>
-      </c>
-      <c r="D29" s="2">
-        <v>83</v>
-      </c>
-      <c r="E29" s="2">
-        <v>17</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0.82999999999999996</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0.44164025485099134</v>
-      </c>
-      <c r="H29" s="3">
-        <v>4.4164025485099135e-003</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-6.4490445859872625e-002</v>
-      </c>
-      <c r="J29" s="3">
-        <v>4.146730462519943e-002</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="M29" s="2">
-        <v>710700</v>
-      </c>
-      <c r="N29" s="2">
-        <v>1562018.5483870967</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="2">
-        <v>124</v>
-      </c>
-      <c r="C30" s="2">
-        <v>100</v>
-      </c>
-      <c r="D30" s="2">
-        <v>83</v>
-      </c>
-      <c r="E30" s="2">
-        <v>17</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0.82999999999999996</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0.48704419530700516</v>
-      </c>
-      <c r="H30" s="3">
-        <v>4.8704419530700514e-003</v>
-      </c>
-      <c r="I30" s="3">
-        <v>-4.7619047619047672e-002</v>
-      </c>
-      <c r="J30" s="3">
-        <v>2.1195274496177863e-002</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M30" s="2">
-        <v>28713600</v>
-      </c>
-      <c r="N30" s="2">
-        <v>72691002.419354841</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="2">
-        <v>126</v>
-      </c>
-      <c r="C31" s="2">
-        <v>102</v>
-      </c>
-      <c r="D31" s="2">
-        <v>84</v>
-      </c>
-      <c r="E31" s="2">
-        <v>18</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0.82352941176470584</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0.39103372364312827</v>
-      </c>
-      <c r="H31" s="3">
-        <v>3.8336639572855713e-003</v>
-      </c>
-      <c r="I31" s="3">
-        <v>-7.251317012705305e-002</v>
-      </c>
-      <c r="J31" s="3">
-        <v>4.3463263194204904e-002</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M31" s="2">
-        <v>6224000</v>
-      </c>
-      <c r="N31" s="2">
-        <v>18288660.714285713</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="2">
-        <v>126</v>
-      </c>
-      <c r="C32" s="2">
-        <v>102</v>
-      </c>
-      <c r="D32" s="2">
-        <v>84</v>
-      </c>
-      <c r="E32" s="2">
-        <v>18</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0.82352941176470584</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0.37001306745879115</v>
-      </c>
-      <c r="H32" s="3">
-        <v>3.6275790927332466e-003</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-0.12493074792243775</v>
-      </c>
-      <c r="J32" s="3">
-        <v>4.4634377967711414e-002</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M32" s="2">
-        <v>760400</v>
-      </c>
-      <c r="N32" s="2">
-        <v>4218193.6507936511</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="2">
-        <v>124</v>
-      </c>
-      <c r="C33" s="2">
-        <v>100</v>
-      </c>
-      <c r="D33" s="2">
-        <v>82</v>
-      </c>
-      <c r="E33" s="2">
-        <v>18</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0.81999999999999995</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0.42889426198251868</v>
-      </c>
-      <c r="H33" s="3">
-        <v>4.2889426198251864e-003</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-8.8235294117646967e-002</v>
-      </c>
-      <c r="J33" s="3">
-        <v>6.800000000000006e-002</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M33" s="2">
-        <v>10743200</v>
-      </c>
-      <c r="N33" s="2">
-        <v>32943161.290322579</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B34" s="2">
-        <v>124</v>
-      </c>
-      <c r="C34" s="2">
-        <v>100</v>
-      </c>
-      <c r="D34" s="2">
-        <v>82</v>
-      </c>
-      <c r="E34" s="2">
-        <v>18</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0.81999999999999995</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0.34704850463548864</v>
-      </c>
-      <c r="H34" s="3">
-        <v>3.4704850463548862e-003</v>
-      </c>
-      <c r="I34" s="3">
-        <v>-4.0569395017793664e-002</v>
-      </c>
-      <c r="J34" s="3">
-        <v>5.4072096128170877e-002</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M34" s="2">
-        <v>2250700</v>
-      </c>
-      <c r="N34" s="2">
-        <v>6623943.5483870972</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="2">
-        <v>122</v>
-      </c>
-      <c r="C35" s="2">
-        <v>99</v>
-      </c>
-      <c r="D35" s="2">
-        <v>81</v>
-      </c>
-      <c r="E35" s="2">
-        <v>18</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0.30065437361679193</v>
-      </c>
-      <c r="H35" s="3">
-        <v>3.03691286481608e-003</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-8.969907407407407e-002</v>
-      </c>
-      <c r="J35" s="3">
-        <v>4.0634291377601661e-002</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M35" s="2">
-        <v>4754300</v>
-      </c>
-      <c r="N35" s="2">
-        <v>11394263.934426229</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36" s="2">
-        <v>124</v>
-      </c>
-      <c r="C36" s="2">
-        <v>100</v>
-      </c>
-      <c r="D36" s="2">
-        <v>81</v>
-      </c>
-      <c r="E36" s="2">
-        <v>19</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0.81000000000000005</v>
-      </c>
-      <c r="G36" s="3">
-        <v>0.43913719655277089</v>
-      </c>
-      <c r="H36" s="3">
-        <v>4.3913719655277088e-003</v>
-      </c>
-      <c r="I36" s="3">
-        <v>-6.5882352941176392e-002</v>
-      </c>
-      <c r="J36" s="3">
-        <v>3.47947112038971e-002</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="M36" s="2">
-        <v>741300</v>
-      </c>
-      <c r="N36" s="2">
-        <v>3545499.1935483869</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B37" s="2">
-        <v>126</v>
-      </c>
-      <c r="C37" s="2">
-        <v>102</v>
-      </c>
-      <c r="D37" s="2">
-        <v>82</v>
-      </c>
-      <c r="E37" s="2">
-        <v>20</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0.80392156862745101</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0.65584748529982806</v>
-      </c>
-      <c r="H37" s="3">
-        <v>6.4298773068610596e-003</v>
-      </c>
-      <c r="I37" s="3">
-        <v>-6.4788732394366222e-002</v>
-      </c>
-      <c r="J37" s="3">
-        <v>0.21229050279329598</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M37" s="2">
-        <v>263400</v>
-      </c>
-      <c r="N37" s="2">
-        <v>990836.50793650793</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B38" s="2">
-        <v>124</v>
-      </c>
-      <c r="C38" s="2">
-        <v>100</v>
-      </c>
-      <c r="D38" s="2">
-        <v>79</v>
-      </c>
-      <c r="E38" s="2">
-        <v>21</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0.79000000000000004</v>
-      </c>
-      <c r="G38" s="3">
-        <v>0.33581892811874259</v>
-      </c>
-      <c r="H38" s="3">
-        <v>3.3581892811874259e-003</v>
-      </c>
-      <c r="I38" s="3">
-        <v>-3.5683202785030455e-002</v>
-      </c>
-      <c r="J38" s="3">
-        <v>1.870078740157477e-002</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M38" s="2">
-        <v>191100</v>
-      </c>
-      <c r="N38" s="2">
-        <v>491350</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" s="2">
-        <v>122</v>
-      </c>
-      <c r="C39" s="2">
-        <v>99</v>
-      </c>
-      <c r="D39" s="2">
-        <v>78</v>
-      </c>
-      <c r="E39" s="2">
-        <v>21</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0.78787878787878785</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0.33005272270238717</v>
-      </c>
-      <c r="H39" s="3">
-        <v>3.3338658858826989e-003</v>
-      </c>
-      <c r="I39" s="3">
-        <v>-5.729596042868923e-002</v>
-      </c>
-      <c r="J39" s="3">
-        <v>3.3110119047619069e-002</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="M39" s="2">
-        <v>4096300</v>
-      </c>
-      <c r="N39" s="2">
-        <v>12714905.737704918</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="2">
-        <v>126</v>
-      </c>
-      <c r="C40" s="2">
-        <v>102</v>
-      </c>
-      <c r="D40" s="2">
-        <v>80</v>
-      </c>
-      <c r="E40" s="2">
-        <v>22</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0.78431372549019607</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0.32350989053499685</v>
-      </c>
-      <c r="H40" s="3">
-        <v>3.1716655934803614e-003</v>
-      </c>
-      <c r="I40" s="3">
-        <v>-5.1502145922746823e-002</v>
-      </c>
-      <c r="J40" s="3">
-        <v>2.6373626373626502e-002</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="M40" s="2">
-        <v>364700</v>
-      </c>
-      <c r="N40" s="2">
-        <v>1041146.0317460317</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B41" s="2">
-        <v>126</v>
-      </c>
-      <c r="C41" s="2">
-        <v>102</v>
-      </c>
-      <c r="D41" s="2">
-        <v>80</v>
-      </c>
-      <c r="E41" s="2">
-        <v>22</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0.78431372549019607</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0.36297802941709412</v>
-      </c>
-      <c r="H41" s="3">
-        <v>3.5586081315401386e-003</v>
-      </c>
-      <c r="I41" s="3">
-        <v>-5.0974512743628186e-002</v>
-      </c>
-      <c r="J41" s="3">
-        <v>7.986111111111116e-002</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M41" s="2">
-        <v>242800</v>
-      </c>
-      <c r="N41" s="2">
-        <v>1169809.5238095238</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" s="2">
-        <v>124</v>
-      </c>
-      <c r="C42" s="2">
-        <v>100</v>
-      </c>
-      <c r="D42" s="2">
-        <v>78</v>
-      </c>
-      <c r="E42" s="2">
-        <v>22</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0.78000000000000003</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0.37405978775583049</v>
-      </c>
-      <c r="H42" s="3">
-        <v>3.7405978775583047e-003</v>
-      </c>
-      <c r="I42" s="3">
-        <v>-5.0558807876529999e-002</v>
-      </c>
-      <c r="J42" s="3">
-        <v>4.6145913895333734e-002</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M42" s="2">
-        <v>1420000</v>
-      </c>
-      <c r="N42" s="2">
-        <v>3940632.2580645164</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B43" s="2">
-        <v>124</v>
-      </c>
-      <c r="C43" s="2">
-        <v>100</v>
-      </c>
-      <c r="D43" s="2">
-        <v>78</v>
-      </c>
-      <c r="E43" s="2">
-        <v>22</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0.78000000000000003</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0.31765567648855336</v>
-      </c>
-      <c r="H43" s="3">
-        <v>3.1765567648855335e-003</v>
-      </c>
-      <c r="I43" s="3">
-        <v>-3.7709497206704023e-002</v>
-      </c>
-      <c r="J43" s="3">
-        <v>5.4961832061068749e-002</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="M43" s="2">
-        <v>293200</v>
-      </c>
-      <c r="N43" s="2">
-        <v>1286870.1612903227</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" s="2">
-        <v>124</v>
-      </c>
-      <c r="C44" s="2">
-        <v>100</v>
-      </c>
-      <c r="D44" s="2">
-        <v>78</v>
-      </c>
-      <c r="E44" s="2">
-        <v>22</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0.78000000000000003</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0.34376321515077685</v>
-      </c>
-      <c r="H44" s="3">
-        <v>3.4376321515077685e-003</v>
-      </c>
-      <c r="I44" s="3">
-        <v>-3.9622641509433953e-002</v>
-      </c>
-      <c r="J44" s="3">
-        <v>2.6897214217098897e-002</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="M44" s="2">
-        <v>763200</v>
-      </c>
-      <c r="N44" s="2">
-        <v>2641660.4838709678</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B45" s="2">
-        <v>126</v>
-      </c>
-      <c r="C45" s="2">
-        <v>102</v>
-      </c>
-      <c r="D45" s="2">
-        <v>79</v>
-      </c>
-      <c r="E45" s="2">
-        <v>23</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0.77450980392156865</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0.384153819966701</v>
-      </c>
-      <c r="H45" s="3">
-        <v>3.7662139212421668e-003</v>
-      </c>
-      <c r="I45" s="3">
-        <v>-3.8922155688622673e-002</v>
-      </c>
-      <c r="J45" s="3">
-        <v>2.6119402985074647e-002</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M45" s="2">
-        <v>298500</v>
-      </c>
-      <c r="N45" s="2">
-        <v>824760.31746031751</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B46" s="2">
-        <v>126</v>
-      </c>
-      <c r="C46" s="2">
-        <v>102</v>
-      </c>
-      <c r="D46" s="2">
-        <v>78</v>
-      </c>
-      <c r="E46" s="2">
-        <v>24</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0.76470588235294112</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0.31579964575155228</v>
-      </c>
-      <c r="H46" s="3">
-        <v>3.0960749583485519e-003</v>
-      </c>
-      <c r="I46" s="3">
-        <v>-5.6634304207119679e-002</v>
-      </c>
-      <c r="J46" s="3">
-        <v>3.7300177619893349e-002</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M46" s="2">
-        <v>129600</v>
-      </c>
-      <c r="N46" s="2">
-        <v>489063.49206349207</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B47" s="2">
-        <v>124</v>
-      </c>
-      <c r="C47" s="2">
-        <v>100</v>
-      </c>
-      <c r="D47" s="2">
-        <v>76</v>
-      </c>
-      <c r="E47" s="2">
-        <v>24</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0.76000000000000001</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0.31294959268031647</v>
-      </c>
-      <c r="H47" s="3">
-        <v>3.1294959268031645e-003</v>
-      </c>
-      <c r="I47" s="3">
-        <v>-4.4004400440044056e-002</v>
-      </c>
-      <c r="J47" s="3">
-        <v>6.321839080459779e-002</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="M47" s="2">
-        <v>5703700</v>
-      </c>
-      <c r="N47" s="2">
-        <v>18409722.580645163</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B48" s="2">
-        <v>124</v>
-      </c>
-      <c r="C48" s="2">
-        <v>100</v>
-      </c>
-      <c r="D48" s="2">
-        <v>76</v>
-      </c>
-      <c r="E48" s="2">
-        <v>24</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0.76000000000000001</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0.51379454890483622</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5.1379454890483622e-003</v>
-      </c>
-      <c r="I48" s="3">
-        <v>-0.20000000000000007</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0.33333333333333326</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="M48" s="2">
-        <v>243700</v>
-      </c>
-      <c r="N48" s="2">
-        <v>1202063.7096774194</v>
-      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
     </row>
     <row r="49">
       <c r="F49" s="6"/>
@@ -4333,16 +3646,10 @@
       <c r="I213" s="6"/>
       <c r="J213" s="6"/>
     </row>
-    <row r="214">
-      <c r="F214" s="6"/>
-      <c r="G214" s="6"/>
-      <c r="H214" s="6"/>
-      <c r="I214" s="6"/>
-      <c r="J214" s="6"/>
-    </row>
+    <row r="214"/>
   </sheetData>
-  <sortState ref="A2:N214" columnSort="0">
-    <sortCondition sortBy="value" descending="0" ref="I2:I214"/>
+  <sortState ref="A1:N47" columnSort="0">
+    <sortCondition sortBy="value" descending="0" ref="I1:I47"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="P2:Z11"/>

--- a/extracteds/Cases/Compra fechamento e venda com 0.80% (Exceto Sexta).xlsx
+++ b/extracteds/Cases/Compra fechamento e venda com 0.80% (Exceto Sexta).xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Ativo</t>
   </si>
@@ -60,13 +60,13 @@
     <t>Stop_loss</t>
   </si>
   <si>
-    <t>CASH3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-17 10:10:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-28 10:10:00</t>
+    <t>SLCE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-17 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-12 10:05:00</t>
   </si>
   <si>
     <r>
@@ -102,73 +102,220 @@
     </r>
   </si>
   <si>
+    <t>SYNE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-05 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-25 10:10:00</t>
+  </si>
+  <si>
+    <t>MYPK3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-14 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-10 10:05:00</t>
+  </si>
+  <si>
+    <t>ENAT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-17 10:00:00</t>
+  </si>
+  <si>
+    <t>RCSL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-16 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-28 10:05:00</t>
+  </si>
+  <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-07 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-12 10:05:00</t>
+  </si>
+  <si>
+    <t>PETR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-24 10:05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-10 10:05:00</t>
+  </si>
+  <si>
+    <t>PETR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-28 10:10:00</t>
+  </si>
+  <si>
+    <t>MEGA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-29 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-28 10:25:00</t>
+  </si>
+  <si>
+    <t>VIVR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-24 10:05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-29 10:10:00</t>
+  </si>
+  <si>
+    <t>NEXP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-24 10:10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-02 10:05:00</t>
+  </si>
+  <si>
+    <t>RRRP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-05 10:05:00</t>
+  </si>
+  <si>
+    <t>LAVV3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-12 10:00:00</t>
+  </si>
+  <si>
+    <t>BRIT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-04 10:05:00</t>
+  </si>
+  <si>
+    <t>INEP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-26 10:20:00</t>
+  </si>
+  <si>
+    <t>PLPL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-01 10:10:00</t>
+  </si>
+  <si>
+    <t>PRIO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-05 10:10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-10 10:10:00</t>
+  </si>
+  <si>
     <t>CIEL3</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-02-24 10:05:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022-02-18 10:05:00</t>
   </si>
   <si>
+    <t>LUPA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-11 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-08 10:05:00</t>
+  </si>
+  <si>
+    <t>GETT11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-21 10:05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-20 10:15:00</t>
+  </si>
+  <si>
+    <t>TRAD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-03 10:00:00</t>
+  </si>
+  <si>
+    <t>TCSA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-24 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-01 10:00:00</t>
+  </si>
+  <si>
+    <t>CASH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-17 10:10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-28 10:10:00</t>
+  </si>
+  <si>
+    <t>WEST3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-20 10:10:00</t>
+  </si>
+  <si>
+    <t>OIBR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-28 10:20:00</t>
+  </si>
+  <si>
+    <t>DMMO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-17 10:10:00</t>
+  </si>
+  <si>
+    <t>TECN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-09 10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-30 10:10:00</t>
+  </si>
+  <si>
+    <t>VIIA3</t>
+  </si>
+  <si>
     <t>COGN3</t>
   </si>
   <si>
     <t xml:space="preserve">2022-03-25 10:05:00</t>
   </si>
   <si>
-    <t>DMMO3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-01 10:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-17 10:10:00</t>
-  </si>
-  <si>
-    <t>ELET6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-07 10:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-12 10:05:00</t>
-  </si>
-  <si>
-    <t>ENAT3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-17 10:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-17 10:00:00</t>
-  </si>
-  <si>
-    <t>GFSA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-05 10:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-12 11:00:00</t>
-  </si>
-  <si>
-    <t>MYPK3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-14 10:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-10 10:05:00</t>
-  </si>
-  <si>
-    <t>NEXP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-24 10:10:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-02 10:05:00</t>
+    <t>ENJU3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-24 10:15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-11 10:10:00</t>
   </si>
   <si>
     <t>NUBR33</t>
@@ -178,114 +325,6 @@
   </si>
   <si>
     <t xml:space="preserve">2022-05-17 10:15:00</t>
-  </si>
-  <si>
-    <t>PETR3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-24 10:05:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-10 10:05:00</t>
-  </si>
-  <si>
-    <t>PETR4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-06 10:05:00</t>
-  </si>
-  <si>
-    <t>PRIO3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-05 10:10:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-10 10:10:00</t>
-  </si>
-  <si>
-    <t>RECV3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-17 10:05:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-04 10:05:00</t>
-  </si>
-  <si>
-    <t>RRRP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-05 10:05:00</t>
-  </si>
-  <si>
-    <t>SLCE3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-12 10:05:00</t>
-  </si>
-  <si>
-    <t>SYNE3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-25 10:10:00</t>
-  </si>
-  <si>
-    <t>TCSA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-24 10:00:00</t>
-  </si>
-  <si>
-    <t>TECN3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-09 10:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-30 10:10:00</t>
-  </si>
-  <si>
-    <t>TRAD3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-03 10:00:00</t>
-  </si>
-  <si>
-    <t>VIIA3</t>
-  </si>
-  <si>
-    <t>VIVR3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-29 10:10:00</t>
-  </si>
-  <si>
-    <t>WEST3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-20 10:10:00</t>
-  </si>
-  <si>
-    <t>INEP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-26 10:20:00</t>
-  </si>
-  <si>
-    <t>LUPA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-11 10:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-08 10:05:00</t>
-  </si>
-  <si>
-    <t>OIBR3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-28 10:20:00</t>
   </si>
 </sst>
 </file>
@@ -306,7 +345,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,6 +354,12 @@
     </fill>
     <fill>
       <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -330,19 +375,23 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="1" applyNumberFormat="1"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="10" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="10" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="10" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -835,31 +884,31 @@
         <v>15</v>
       </c>
       <c r="B2" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3">
-        <v>0.82352941176470584</v>
+        <v>0.84112149532710279</v>
       </c>
       <c r="G2" s="3">
-        <v>0.39008986028625831</v>
+        <v>0.45683174270122867</v>
       </c>
       <c r="H2" s="3">
-        <v>3.8244103949633167e-003</v>
+        <v>4.2694555392638195e-003</v>
       </c>
       <c r="I2" s="3">
-        <v>-6.6166666666666651e-002</v>
+        <v>-2.0613243761996192e-002</v>
       </c>
       <c r="J2" s="3">
-        <v>4.4067796610169463e-002</v>
+        <v>2.8000000000000025e-002</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>16</v>
@@ -868,18 +917,17 @@
         <v>17</v>
       </c>
       <c r="M2" s="2">
-        <v>7454500</v>
+        <v>656400</v>
       </c>
       <c r="N2" s="2">
-        <v>38302714.173228346</v>
+        <v>1812647.3684210526</v>
       </c>
       <c r="O2" s="3">
-        <v>-6.6166666666666651e-002</v>
-      </c>
-      <c r="P2" s="4" t="s">
+        <v>-2.0613243761996192e-002</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
@@ -889,37 +937,38 @@
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D3" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3">
-        <v>0.80392156862745101</v>
+        <v>0.79824561403508776</v>
       </c>
       <c r="G3" s="3">
-        <v>0.37175590875431902</v>
+        <v>0.47699908202736307</v>
       </c>
       <c r="H3" s="3">
-        <v>3.6446657721011669e-003</v>
+        <v>4.1842024739242372e-003</v>
       </c>
       <c r="I3" s="3">
-        <v>-5.7639534883720922e-002</v>
+        <v>-2.4009803921568651e-002</v>
       </c>
       <c r="J3" s="3">
-        <v>6.800000000000006e-002</v>
+        <v>7.986111111111116e-002</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>20</v>
@@ -928,15 +977,14 @@
         <v>21</v>
       </c>
       <c r="M3" s="2">
-        <v>4614900</v>
+        <v>242800</v>
       </c>
       <c r="N3" s="2">
-        <v>32772901.574803151</v>
+        <v>1093125.5319148935</v>
       </c>
       <c r="O3" s="3">
-        <v>-5.7639534883720922e-002</v>
-      </c>
-      <c r="P3" s="5"/>
+        <v>-2.4009803921568651e-002</v>
+      </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
@@ -947,54 +995,54 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2">
-        <v>127</v>
-      </c>
-      <c r="C4" s="2">
-        <v>102</v>
-      </c>
-      <c r="D4" s="2">
-        <v>89</v>
-      </c>
-      <c r="E4" s="2">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.87254901960784315</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.53111673343399157</v>
-      </c>
-      <c r="H4" s="3">
-        <v>5.2070267983724662e-003</v>
-      </c>
-      <c r="I4" s="3">
-        <v>-8.3533613445378074e-002</v>
-      </c>
-      <c r="J4" s="3">
-        <v>5.6277056277056259e-002</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="B4" s="6">
+        <v>133</v>
+      </c>
+      <c r="C4" s="6">
+        <v>107</v>
+      </c>
+      <c r="D4" s="6">
+        <v>88</v>
+      </c>
+      <c r="E4" s="6">
+        <v>19</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.82242990654205606</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.39948031667837547</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3.7334609035362194e-003</v>
+      </c>
+      <c r="I4" s="7">
+        <v>-2.8271929824561448e-002</v>
+      </c>
+      <c r="J4" s="7">
+        <v>4.146730462519943e-002</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="2">
-        <v>7426200</v>
-      </c>
-      <c r="N4" s="2">
-        <v>34852972.44094488</v>
-      </c>
-      <c r="O4" s="3">
-        <v>-8.3533613445378074e-002</v>
-      </c>
-      <c r="P4" s="5"/>
+      <c r="L4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="6">
+        <v>677200</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1543215.7894736843</v>
+      </c>
+      <c r="O4" s="7">
+        <v>-2.8271929824561448e-002</v>
+      </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
@@ -1005,54 +1053,54 @@
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C5" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D5" s="2">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3">
-        <v>0.92156862745098034</v>
+        <v>0.82242990654205606</v>
       </c>
       <c r="G5" s="3">
-        <v>0.72309829428190242</v>
+        <v>0.34269713535960172</v>
       </c>
       <c r="H5" s="3">
-        <v>7.0891989635480631e-003</v>
+        <v>3.2027769659775862e-003</v>
       </c>
       <c r="I5" s="3">
-        <v>-7.7625000000000111e-002</v>
+        <v>-3.396528129751647e-002</v>
       </c>
       <c r="J5" s="3">
-        <v>5.9829059829059839e-002</v>
+        <v>2.6740665993945534e-002</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M5" s="2">
-        <v>1013600</v>
+        <v>544200</v>
       </c>
       <c r="N5" s="2">
-        <v>20354196.062992126</v>
+        <v>2101274.4360902254</v>
       </c>
       <c r="O5" s="3">
-        <v>-7.7625000000000111e-002</v>
-      </c>
-      <c r="P5" s="5"/>
+        <v>-3.396528129751647e-002</v>
+      </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -1063,37 +1111,38 @@
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C6" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D6" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3">
-        <v>0.80392156862745101</v>
+        <v>0.82242990654205606</v>
       </c>
       <c r="G6" s="3">
-        <v>0.38750724060676345</v>
+        <v>0.33350775028387109</v>
       </c>
       <c r="H6" s="3">
-        <v>3.7990905941839553e-003</v>
+        <v>3.1168948624660849e-003</v>
       </c>
       <c r="I6" s="3">
-        <v>-3.6786380113930595e-002</v>
+        <v>-3.4675879396984965e-002</v>
       </c>
       <c r="J6" s="3">
-        <v>3.47947112038971e-002</v>
+        <v>2.8653295128939771e-002</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>28</v>
@@ -1102,15 +1151,14 @@
         <v>29</v>
       </c>
       <c r="M6" s="2">
-        <v>741300</v>
+        <v>129250</v>
       </c>
       <c r="N6" s="2">
-        <v>3606908.6614173227</v>
+        <v>1596522.932330827</v>
       </c>
       <c r="O6" s="3">
-        <v>-3.6786380113930595e-002</v>
-      </c>
-      <c r="P6" s="5"/>
+        <v>-3.4675879396984965e-002</v>
+      </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
@@ -1121,37 +1169,38 @@
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C7" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D7" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F7" s="3">
-        <v>0.82352941176470584</v>
+        <v>0.80373831775700932</v>
       </c>
       <c r="G7" s="3">
-        <v>0.3237959677572757</v>
+        <v>0.40402050220666275</v>
       </c>
       <c r="H7" s="3">
-        <v>3.1744702721301539e-003</v>
+        <v>3.7758925439875025e-003</v>
       </c>
       <c r="I7" s="3">
-        <v>-3.396528129751647e-002</v>
+        <v>-3.6786380113930595e-002</v>
       </c>
       <c r="J7" s="3">
-        <v>2.6740665993945534e-002</v>
+        <v>3.47947112038971e-002</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>31</v>
@@ -1160,15 +1209,14 @@
         <v>32</v>
       </c>
       <c r="M7" s="2">
-        <v>544200</v>
+        <v>741300</v>
       </c>
       <c r="N7" s="2">
-        <v>2115507.874015748</v>
+        <v>3687968.4210526315</v>
       </c>
       <c r="O7" s="3">
-        <v>-3.396528129751647e-002</v>
-      </c>
-      <c r="P7" s="5"/>
+        <v>-3.6786380113930595e-002</v>
+      </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -1179,37 +1227,38 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="2">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C8" s="2">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D8" s="2">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F8" s="3">
-        <v>0.85999999999999999</v>
+        <v>0.81578947368421051</v>
       </c>
       <c r="G8" s="3">
-        <v>0.33156340563166214</v>
+        <v>0.45904695985081606</v>
       </c>
       <c r="H8" s="3">
-        <v>3.3156340563166215e-003</v>
+        <v>4.0267277179896147e-003</v>
       </c>
       <c r="I8" s="3">
-        <v>-7.5586956521739135e-002</v>
+        <v>-3.9819260096017994e-002</v>
       </c>
       <c r="J8" s="3">
-        <v>3.7433155080213831e-002</v>
+        <v>4.3463263194204904e-002</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>34</v>
@@ -1218,15 +1267,14 @@
         <v>35</v>
       </c>
       <c r="M8" s="2">
-        <v>2464100</v>
+        <v>4874000</v>
       </c>
       <c r="N8" s="2">
-        <v>6698545.1612903224</v>
+        <v>17777249.290780142</v>
       </c>
       <c r="O8" s="3">
-        <v>-7.5586956521739135e-002</v>
-      </c>
-      <c r="P8" s="5"/>
+        <v>-2.728707733511887e-002</v>
+      </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
@@ -1237,54 +1285,54 @@
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="2">
-        <v>127</v>
-      </c>
-      <c r="C9" s="2">
-        <v>102</v>
-      </c>
-      <c r="D9" s="2">
-        <v>83</v>
-      </c>
-      <c r="E9" s="2">
-        <v>19</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.81372549019607843</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.35312816080581</v>
-      </c>
-      <c r="H9" s="3">
-        <v>3.4620407922138236e-003</v>
-      </c>
-      <c r="I9" s="3">
-        <v>-2.8271929824561448e-002</v>
-      </c>
-      <c r="J9" s="3">
-        <v>4.146730462519943e-002</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="B9" s="6">
+        <v>141</v>
+      </c>
+      <c r="C9" s="6">
+        <v>114</v>
+      </c>
+      <c r="D9" s="6">
+        <v>93</v>
+      </c>
+      <c r="E9" s="6">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.81578947368421051</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.46450865065524138</v>
+      </c>
+      <c r="H9" s="7">
+        <v>4.0746372864494855e-003</v>
+      </c>
+      <c r="I9" s="7">
+        <v>-4.1474654377880116e-002</v>
+      </c>
+      <c r="J9" s="7">
+        <v>2.1443888491779806e-002</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="2">
-        <v>232000</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1550493.7007874015</v>
-      </c>
-      <c r="O9" s="3">
-        <v>-2.8271929824561448e-002</v>
-      </c>
-      <c r="P9" s="5"/>
+      <c r="M9" s="6">
+        <v>28713600</v>
+      </c>
+      <c r="N9" s="6">
+        <v>72387881.560283691</v>
+      </c>
+      <c r="O9" s="7">
+        <v>-3.2104925424904562e-002</v>
+      </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
@@ -1295,54 +1343,54 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2">
+        <v>126</v>
+      </c>
+      <c r="C10" s="2">
+        <v>101</v>
+      </c>
+      <c r="D10" s="2">
+        <v>82</v>
+      </c>
+      <c r="E10" s="2">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.81188118811881194</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.35030637678104637</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3.468379968129172e-003</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-4.8462655601659688e-002</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.15490196078431384</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="2">
-        <v>127</v>
-      </c>
-      <c r="C10" s="2">
-        <v>102</v>
-      </c>
-      <c r="D10" s="2">
-        <v>90</v>
-      </c>
-      <c r="E10" s="2">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.71507690778695565</v>
-      </c>
-      <c r="H10" s="3">
-        <v>7.0105579194799572e-003</v>
-      </c>
-      <c r="I10" s="3">
-        <v>-5.0000000000000044e-002</v>
-      </c>
-      <c r="J10" s="3">
-        <v>6.5040650406504197e-002</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="M10" s="2">
-        <v>229300</v>
+        <v>553900</v>
       </c>
       <c r="N10" s="2">
-        <v>1256992.125984252</v>
+        <v>2439173.0158730159</v>
       </c>
       <c r="O10" s="3">
-        <v>-3.7595238095238181e-002</v>
-      </c>
-      <c r="P10" s="5"/>
+        <v>-4.8462655601659688e-002</v>
+      </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
@@ -1353,54 +1401,54 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2">
+        <v>133</v>
+      </c>
+      <c r="C11" s="2">
+        <v>107</v>
+      </c>
+      <c r="D11" s="2">
+        <v>96</v>
+      </c>
+      <c r="E11" s="2">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.89719626168224298</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.73190252693370095</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6.8402105320906634e-003</v>
+      </c>
+      <c r="I11" s="3">
+        <v>-4.9019607843137303e-002</v>
+      </c>
+      <c r="J11" s="3">
+        <v>3.007518796992481e-002</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="2">
-        <v>127</v>
-      </c>
-      <c r="C11" s="2">
-        <v>102</v>
-      </c>
-      <c r="D11" s="2">
-        <v>85</v>
-      </c>
-      <c r="E11" s="2">
-        <v>17</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.41601398050641003</v>
-      </c>
-      <c r="H11" s="3">
-        <v>4.0785684363373528e-003</v>
-      </c>
-      <c r="I11" s="3">
-        <v>-0.10785913312693501</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0.10684931506849327</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="M11" s="2">
-        <v>696225</v>
+        <v>1159800</v>
       </c>
       <c r="N11" s="2">
-        <v>6642299.9055118114</v>
+        <v>3873224.8120300751</v>
       </c>
       <c r="O11" s="3">
-        <v>-0.10785913312693501</v>
-      </c>
-      <c r="P11" s="5"/>
+        <v>-2.8626213592232996e-002</v>
+      </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
@@ -1411,522 +1459,523 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2">
+        <v>133</v>
+      </c>
+      <c r="C12" s="2">
+        <v>107</v>
+      </c>
+      <c r="D12" s="2">
+        <v>94</v>
+      </c>
+      <c r="E12" s="2">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.87850467289719625</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.72800547921552661</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6.8037895253787537e-003</v>
+      </c>
+      <c r="I12" s="3">
+        <v>-5.0000000000000044e-002</v>
+      </c>
+      <c r="J12" s="3">
+        <v>6.5040650406504197e-002</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="2">
-        <v>131</v>
-      </c>
-      <c r="C12" s="2">
-        <v>106</v>
-      </c>
-      <c r="D12" s="2">
-        <v>87</v>
-      </c>
-      <c r="E12" s="2">
-        <v>19</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.82075471698113212</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.41434957547359719</v>
-      </c>
-      <c r="H12" s="3">
-        <v>3.908958259184879e-003</v>
-      </c>
-      <c r="I12" s="3">
-        <v>-3.9819260096017994e-002</v>
-      </c>
-      <c r="J12" s="3">
-        <v>4.3463263194204904e-002</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="M12" s="2">
-        <v>6224000</v>
+        <v>107600</v>
       </c>
       <c r="N12" s="2">
-        <v>18183554.580152672</v>
+        <v>1213757.894736842</v>
       </c>
       <c r="O12" s="3">
-        <v>-2.728707733511887e-002</v>
+        <v>-3.7595238095238181e-002</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="2">
+        <v>141</v>
+      </c>
+      <c r="C13" s="2">
+        <v>114</v>
+      </c>
+      <c r="D13" s="2">
+        <v>92</v>
+      </c>
+      <c r="E13" s="2">
+        <v>22</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.80701754385964908</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.49293289261643675</v>
+      </c>
+      <c r="H13" s="3">
+        <v>4.3239727422494448e-003</v>
+      </c>
+      <c r="I13" s="3">
+        <v>-5.0540775591673748e-002</v>
+      </c>
+      <c r="J13" s="3">
+        <v>4.4634377967711414e-002</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="2">
-        <v>127</v>
-      </c>
-      <c r="C13" s="2">
-        <v>102</v>
-      </c>
-      <c r="D13" s="2">
-        <v>83</v>
-      </c>
-      <c r="E13" s="2">
-        <v>19</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.81372549019607843</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.40239276850603417</v>
-      </c>
-      <c r="H13" s="3">
-        <v>3.9450271422160213e-003</v>
-      </c>
-      <c r="I13" s="3">
-        <v>-4.1474654377880116e-002</v>
-      </c>
-      <c r="J13" s="3">
-        <v>2.1195274496177863e-002</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="L13" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M13" s="2">
-        <v>28713600</v>
+        <v>760400</v>
       </c>
       <c r="N13" s="2">
-        <v>73272579.527559057</v>
+        <v>4288503.5460992912</v>
       </c>
       <c r="O13" s="3">
-        <v>-3.2104925424904562e-002</v>
+        <v>-5.0540775591673748e-002</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="2">
+        <v>141</v>
+      </c>
+      <c r="C14" s="2">
+        <v>114</v>
+      </c>
+      <c r="D14" s="2">
+        <v>89</v>
+      </c>
+      <c r="E14" s="2">
+        <v>25</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.7807017543859649</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.34410706860945584</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3.0184830579776827e-003</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-5.1189860834990164e-002</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2.6373626373626502e-002</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="2">
-        <v>127</v>
-      </c>
-      <c r="C14" s="2">
-        <v>102</v>
-      </c>
-      <c r="D14" s="2">
-        <v>87</v>
-      </c>
-      <c r="E14" s="2">
-        <v>15</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.8529411764705882</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.61113937113690064</v>
-      </c>
-      <c r="H14" s="3">
-        <v>5.9915624621264766e-003</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-5.5102716468590829e-002</v>
-      </c>
-      <c r="J14" s="3">
-        <v>3.5577658760520325e-002</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="M14" s="2">
-        <v>9086300</v>
+        <v>283600</v>
       </c>
       <c r="N14" s="2">
-        <v>20583591.338582676</v>
+        <v>1008504.9645390071</v>
       </c>
       <c r="O14" s="3">
-        <v>-5.5102716468590829e-002</v>
+        <v>-5.1189860834990164e-002</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C15" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D15" s="2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F15" s="3">
-        <v>0.82352941176470584</v>
+        <v>0.86915887850467288</v>
       </c>
       <c r="G15" s="3">
-        <v>0.34222315428824418</v>
+        <v>0.72757097055467179</v>
       </c>
       <c r="H15" s="3">
-        <v>3.3551289636102369e-003</v>
+        <v>6.7997286967726332e-003</v>
       </c>
       <c r="I15" s="3">
-        <v>-4.1348844472204938e-002</v>
+        <v>-5.1448051948051965e-002</v>
       </c>
       <c r="J15" s="3">
-        <v>3.5322777101096214e-002</v>
+        <v>5.4919908466819267e-002</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M15" s="2">
-        <v>219600</v>
+        <v>188900</v>
       </c>
       <c r="N15" s="2">
-        <v>1080868.5039370079</v>
+        <v>617462.40601503756</v>
       </c>
       <c r="O15" s="3">
-        <v>-4.1348844472204938e-002</v>
+        <v>-5.1448051948051965e-002</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C16" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D16" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F16" s="3">
-        <v>0.81372549019607843</v>
+        <v>0.74766355140186913</v>
       </c>
       <c r="G16" s="3">
-        <v>0.44126980568686808</v>
+        <v>0.66460854192213814</v>
       </c>
       <c r="H16" s="3">
-        <v>4.32617456555753e-003</v>
+        <v>6.2112947843190481e-003</v>
       </c>
       <c r="I16" s="3">
-        <v>-5.0540775591673748e-002</v>
+        <v>-5.2287581699346442e-002</v>
       </c>
       <c r="J16" s="3">
-        <v>4.4634377967711414e-002</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="M16" s="2">
-        <v>760400</v>
+        <v>243700</v>
       </c>
       <c r="N16" s="2">
-        <v>4209766.9291338585</v>
+        <v>1199584.2105263157</v>
       </c>
       <c r="O16" s="3">
-        <v>-5.0540775591673748e-002</v>
+        <v>-3.7093984962406068e-002</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C17" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D17" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E17" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" s="3">
-        <v>0.84313725490196079</v>
+        <v>0.84112149532710279</v>
       </c>
       <c r="G17" s="3">
-        <v>0.44079632813011149</v>
+        <v>0.51358345035216313</v>
       </c>
       <c r="H17" s="3">
-        <v>4.3215326287265833e-003</v>
+        <v>4.7998453303940477e-003</v>
       </c>
       <c r="I17" s="3">
-        <v>-2.0613243761996192e-002</v>
+        <v>-5.3139846743295027e-002</v>
       </c>
       <c r="J17" s="3">
-        <v>2.8000000000000025e-002</v>
+        <v>3.4351145038167941e-002</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M17" s="2">
-        <v>488700</v>
+        <v>255700</v>
       </c>
       <c r="N17" s="2">
-        <v>1796082.6771653544</v>
+        <v>779077.44360902254</v>
       </c>
       <c r="O17" s="3">
-        <v>-2.0613243761996192e-002</v>
+        <v>-5.3139846743295027e-002</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C18" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D18" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E18" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F18" s="3">
-        <v>0.77450980392156865</v>
+        <v>0.85046728971962615</v>
       </c>
       <c r="G18" s="3">
-        <v>0.37658247517523735</v>
+        <v>0.64729292124117443</v>
       </c>
       <c r="H18" s="3">
-        <v>3.6919850507376212e-003</v>
+        <v>6.0494665536558355e-003</v>
       </c>
       <c r="I18" s="3">
-        <v>-2.4009803921568651e-002</v>
+        <v>-5.5102716468590829e-002</v>
       </c>
       <c r="J18" s="3">
-        <v>7.986111111111116e-002</v>
+        <v>3.5577658760520325e-002</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M18" s="2">
-        <v>103300</v>
+        <v>9086300</v>
       </c>
       <c r="N18" s="2">
-        <v>1161411.8110236221</v>
+        <v>20690418.045112781</v>
       </c>
       <c r="O18" s="3">
-        <v>-2.4009803921568651e-002</v>
+        <v>-5.5102716468590829e-002</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B19" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C19" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D19" s="2">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E19" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F19" s="3">
-        <v>0.88235294117647056</v>
+        <v>0.81308411214953269</v>
       </c>
       <c r="G19" s="3">
-        <v>0.34387135848071898</v>
+        <v>0.41175590875431906</v>
       </c>
       <c r="H19" s="3">
-        <v>3.3712878282423429e-003</v>
+        <v>3.848186063124477e-003</v>
       </c>
       <c r="I19" s="3">
-        <v>-6.2900576368875971e-002</v>
+        <v>-5.7639534883720922e-002</v>
       </c>
       <c r="J19" s="3">
-        <v>2.4930747922437657e-002</v>
+        <v>6.800000000000006e-002</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="M19" s="2">
-        <v>123600</v>
+        <v>9645000</v>
       </c>
       <c r="N19" s="2">
-        <v>601720.47244094487</v>
+        <v>32176172.932330828</v>
       </c>
       <c r="O19" s="3">
-        <v>-6.2900576368875971e-002</v>
+        <v>-5.7639534883720922e-002</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C20" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D20" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E20" s="2">
         <v>12</v>
       </c>
       <c r="F20" s="3">
-        <v>0.88235294117647056</v>
+        <v>0.88785046728971961</v>
       </c>
       <c r="G20" s="3">
-        <v>0.47430913474805336</v>
+        <v>0.40918331134037422</v>
       </c>
       <c r="H20" s="3">
-        <v>4.6500895563534646e-003</v>
+        <v>3.8241430966390114e-003</v>
       </c>
       <c r="I20" s="3">
-        <v>-7.7841013824884786e-002</v>
+        <v>-5.943150684931503e-002</v>
       </c>
       <c r="J20" s="3">
-        <v>3.2051282051282159e-002</v>
+        <v>3.3755274261603407e-002</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M20" s="2">
-        <v>151400</v>
+        <v>122100</v>
       </c>
       <c r="N20" s="2">
-        <v>1127767.716535433</v>
+        <v>1082246.6165413533</v>
       </c>
       <c r="O20" s="3">
-        <v>-7.7841013824884786e-002</v>
+        <v>-5.943150684931503e-002</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="2">
+        <v>141</v>
+      </c>
+      <c r="C21" s="2">
+        <v>114</v>
+      </c>
+      <c r="D21" s="2">
+        <v>89</v>
+      </c>
+      <c r="E21" s="2">
+        <v>25</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.7807017543859649</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.53771837536975264</v>
+      </c>
+      <c r="H21" s="3">
+        <v>4.7168278541206369e-003</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-6.197183098591541e-002</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.21229050279329598</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="2">
-        <v>127</v>
-      </c>
-      <c r="C21" s="2">
-        <v>102</v>
-      </c>
-      <c r="D21" s="2">
-        <v>94</v>
-      </c>
-      <c r="E21" s="2">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.92156862745098034</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0.5606502734640203</v>
-      </c>
-      <c r="H21" s="3">
-        <v>5.4965713084707876e-003</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-6.2606796116504937e-002</v>
-      </c>
-      <c r="J21" s="3">
-        <v>3.5046728971962482e-002</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="M21" s="2">
-        <v>907700</v>
+        <v>263400</v>
       </c>
       <c r="N21" s="2">
-        <v>2559045.6692913384</v>
+        <v>939937.58865248226</v>
       </c>
       <c r="O21" s="3">
-        <v>-6.2606796116504937e-002</v>
+        <v>-3.8075667655786349e-002</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="2">
+        <v>133</v>
+      </c>
+      <c r="C22" s="2">
+        <v>107</v>
+      </c>
+      <c r="D22" s="2">
+        <v>99</v>
+      </c>
+      <c r="E22" s="2">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.92523364485981308</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.60121191729963674</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5.6188029654171655e-003</v>
+      </c>
+      <c r="I22" s="3">
+        <v>-6.2606796116504937e-002</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3.5046728971962482e-002</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="2">
-        <v>127</v>
-      </c>
-      <c r="C22" s="2">
-        <v>102</v>
-      </c>
-      <c r="D22" s="2">
-        <v>84</v>
-      </c>
-      <c r="E22" s="2">
-        <v>18</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0.82352941176470584</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0.35622807575407417</v>
-      </c>
-      <c r="H22" s="3">
-        <v>3.4924321152360214e-003</v>
-      </c>
-      <c r="I22" s="3">
-        <v>-7.8034031413612481e-002</v>
-      </c>
-      <c r="J22" s="3">
-        <v>4.8327137546468446e-002</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="L22" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="M22" s="2">
-        <v>19955500</v>
+        <v>907700</v>
       </c>
       <c r="N22" s="2">
-        <v>53162624.409448817</v>
+        <v>2611171.4285714286</v>
       </c>
       <c r="O22" s="3">
-        <v>-7.8034031413612481e-002</v>
+        <v>-6.2606796116504937e-002</v>
       </c>
     </row>
     <row r="23">
@@ -1934,315 +1983,470 @@
         <v>70</v>
       </c>
       <c r="B23" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C23" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D23" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E23" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F23" s="3">
-        <v>0.89215686274509809</v>
+        <v>0.87850467289719625</v>
       </c>
       <c r="G23" s="3">
-        <v>0.67263130540160976</v>
+        <v>0.34104370200655237</v>
       </c>
       <c r="H23" s="3">
-        <v>6.5944245627608802e-003</v>
+        <v>3.1873243178182466e-003</v>
       </c>
       <c r="I23" s="3">
-        <v>-4.9019607843137303e-002</v>
+        <v>-6.2900576368875971e-002</v>
       </c>
       <c r="J23" s="3">
-        <v>3.007518796992481e-002</v>
+        <v>2.4930747922437657e-002</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M23" s="2">
-        <v>1159800</v>
+        <v>192300</v>
       </c>
       <c r="N23" s="2">
-        <v>3955071.653543307</v>
+        <v>595095.48872180446</v>
       </c>
       <c r="O23" s="3">
-        <v>-2.8626213592232996e-002</v>
+        <v>-6.2900576368875971e-002</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" s="2">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C24" s="2">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D24" s="2">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E24" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F24" s="3">
-        <v>0.88235294117647056</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="G24" s="3">
-        <v>0.59597202547287931</v>
+        <v>0.54366113086766166</v>
       </c>
       <c r="H24" s="3">
-        <v>5.8428629948321497e-003</v>
+        <v>4.7689572883128214e-003</v>
       </c>
       <c r="I24" s="3">
-        <v>-6.7067567567567654e-002</v>
+        <v>-6.6166666666666651e-002</v>
       </c>
       <c r="J24" s="3">
-        <v>3.114186851211076e-002</v>
+        <v>4.4067796610169463e-002</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M24" s="2">
-        <v>109300</v>
+        <v>10025700</v>
       </c>
       <c r="N24" s="2">
-        <v>862330.70866141736</v>
+        <v>36946520.567375883</v>
       </c>
       <c r="O24" s="3">
-        <v>-6.7067567567567654e-002</v>
+        <v>-6.6166666666666651e-002</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B25" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C25" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D25" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E25" s="2">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F25" s="3">
-        <v>0.73529411764705888</v>
+        <v>0.87850467289719625</v>
       </c>
       <c r="G25" s="3">
-        <v>0.61647950966407361</v>
+        <v>0.63773817589642667</v>
       </c>
       <c r="H25" s="3">
-        <v>6.0439167614124868e-003</v>
+        <v>5.9601698681909033e-003</v>
       </c>
       <c r="I25" s="3">
-        <v>-5.2287581699346442e-002</v>
+        <v>-6.7067567567567654e-002</v>
       </c>
       <c r="J25" s="3">
-        <v>0.33333333333333326</v>
+        <v>3.114186851211076e-002</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M25" s="2">
-        <v>243700</v>
+        <v>193500</v>
       </c>
       <c r="N25" s="2">
-        <v>1208396.062992126</v>
+        <v>845557.89473684214</v>
       </c>
       <c r="O25" s="3">
-        <v>-3.7093984962406068e-002</v>
+        <v>-6.7067567567567654e-002</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B26" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C26" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D26" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E26" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F26" s="3">
-        <v>0.88235294117647056</v>
+        <v>0.86915887850467288</v>
       </c>
       <c r="G26" s="3">
-        <v>0.36289041628179808</v>
+        <v>0.56284585744660309</v>
       </c>
       <c r="H26" s="3">
-        <v>3.5577491792333146e-003</v>
+        <v>5.2602416583794678e-003</v>
       </c>
       <c r="I26" s="3">
-        <v>-5.943150684931503e-002</v>
+        <v>-7.4500000000000066e-002</v>
       </c>
       <c r="J26" s="3">
-        <v>3.3755274261603407e-002</v>
+        <v>5.9405940594059459e-002</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M26" s="2">
-        <v>187800</v>
+        <v>24885500</v>
       </c>
       <c r="N26" s="2">
-        <v>1118434.6456692913</v>
+        <v>80159383.45864661</v>
       </c>
       <c r="O26" s="3">
-        <v>-5.943150684931503e-002</v>
+        <v>-7.4500000000000066e-002</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B27" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C27" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D27" s="2">
+        <v>99</v>
+      </c>
+      <c r="E27" s="2">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.92523364485981308</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.79238711734217349</v>
+      </c>
+      <c r="H27" s="3">
+        <v>7.405487077964238e-003</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-7.7625000000000111e-002</v>
+      </c>
+      <c r="J27" s="3">
+        <v>5.9829059829059839e-002</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1013600</v>
+      </c>
+      <c r="N27" s="2">
+        <v>20481830.827067669</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-7.7625000000000111e-002</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="2">
+        <v>133</v>
+      </c>
+      <c r="C28" s="2">
+        <v>107</v>
+      </c>
+      <c r="D28" s="2">
+        <v>94</v>
+      </c>
+      <c r="E28" s="2">
+        <v>13</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.87850467289719625</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.47493051388160867</v>
+      </c>
+      <c r="H28" s="3">
+        <v>4.4386029334729784e-003</v>
+      </c>
+      <c r="I28" s="3">
+        <v>-7.7841013824884786e-002</v>
+      </c>
+      <c r="J28" s="3">
+        <v>3.2051282051282159e-002</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M28" s="2">
+        <v>210600</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1104638.3458646617</v>
+      </c>
+      <c r="O28" s="3">
+        <v>-7.7841013824884786e-002</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="2">
+        <v>133</v>
+      </c>
+      <c r="C29" s="2">
+        <v>107</v>
+      </c>
+      <c r="D29" s="2">
+        <v>89</v>
+      </c>
+      <c r="E29" s="2">
+        <v>18</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.83177570093457942</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.4154849980633098</v>
+      </c>
+      <c r="H29" s="3">
+        <v>3.8830373650776615e-003</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-7.8034031413612481e-002</v>
+      </c>
+      <c r="J29" s="3">
+        <v>4.8327137546468446e-002</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="2">
+        <v>19955500</v>
+      </c>
+      <c r="N29" s="2">
+        <v>52726057.142857142</v>
+      </c>
+      <c r="O29" s="3">
+        <v>-7.8034031413612481e-002</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="2">
+        <v>133</v>
+      </c>
+      <c r="C30" s="2">
+        <v>107</v>
+      </c>
+      <c r="D30" s="2">
+        <v>94</v>
+      </c>
+      <c r="E30" s="2">
+        <v>13</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.87850467289719625</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.57262429961412431</v>
+      </c>
+      <c r="H30" s="3">
+        <v>5.351628968356302e-003</v>
+      </c>
+      <c r="I30" s="3">
+        <v>-8.3533613445378074e-002</v>
+      </c>
+      <c r="J30" s="3">
+        <v>5.6277056277056259e-002</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M30" s="2">
+        <v>11684000</v>
+      </c>
+      <c r="N30" s="2">
+        <v>34740424.060150377</v>
+      </c>
+      <c r="O30" s="3">
+        <v>-8.3533613445378074e-002</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="2">
-        <v>14</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.86274509803921573</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0.50066403926478475</v>
-      </c>
-      <c r="H27" s="3">
-        <v>4.9084709731841642e-003</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-7.4500000000000066e-002</v>
-      </c>
-      <c r="J27" s="3">
-        <v>5.9405940594059459e-002</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="M27" s="2">
-        <v>22579400</v>
-      </c>
-      <c r="N27" s="2">
-        <v>80933092.913385823</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-7.4500000000000066e-002</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="B31" s="2">
+        <v>133</v>
+      </c>
+      <c r="C31" s="2">
+        <v>107</v>
+      </c>
+      <c r="D31" s="2">
+        <v>91</v>
+      </c>
+      <c r="E31" s="2">
+        <v>16</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.85046728971962615</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.36708667210775414</v>
+      </c>
+      <c r="H31" s="3">
+        <v>3.4307165617547116e-003</v>
+      </c>
+      <c r="I31" s="3">
+        <v>-0.10422972972972971</v>
+      </c>
+      <c r="J31" s="3">
+        <v>6.4102564102564319e-002</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M31" s="2">
+        <v>779000</v>
+      </c>
+      <c r="N31" s="2">
+        <v>2729860.1503759399</v>
+      </c>
+      <c r="O31" s="3">
+        <v>-0.10422972972972971</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="A32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="2">
+        <v>141</v>
+      </c>
+      <c r="C32" s="2">
+        <v>114</v>
+      </c>
+      <c r="D32" s="2">
+        <v>95</v>
+      </c>
+      <c r="E32" s="2">
+        <v>19</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.4305442167617568</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3.7767036558048841e-003</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-0.10785913312693501</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0.10684931506849327</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M32" s="2">
+        <v>696225</v>
+      </c>
+      <c r="N32" s="2">
+        <v>6941672.4468085105</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-0.10785913312693501</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2"/>
@@ -2485,1174 +2689,1174 @@
       <c r="N47" s="2"/>
     </row>
     <row r="48">
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
     </row>
     <row r="49">
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
     </row>
     <row r="50">
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
     </row>
     <row r="51">
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
     </row>
     <row r="52">
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
     </row>
     <row r="53">
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
     </row>
     <row r="54">
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
     </row>
     <row r="55">
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
     </row>
     <row r="56">
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
     </row>
     <row r="57">
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
     </row>
     <row r="58">
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
     </row>
     <row r="59">
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
     </row>
     <row r="60">
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
     </row>
     <row r="61">
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
     </row>
     <row r="62">
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
     </row>
     <row r="63">
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
     </row>
     <row r="64">
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
     </row>
     <row r="65">
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
     </row>
     <row r="66">
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
     </row>
     <row r="67">
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
     </row>
     <row r="68">
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
     </row>
     <row r="69">
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
     </row>
     <row r="70">
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
     </row>
     <row r="71">
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
     </row>
     <row r="72">
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
     </row>
     <row r="73">
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
     </row>
     <row r="74">
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
     </row>
     <row r="75">
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
     </row>
     <row r="76">
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
     </row>
     <row r="77">
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
     </row>
     <row r="78">
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
     </row>
     <row r="79">
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
     </row>
     <row r="80">
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
     </row>
     <row r="81">
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
     </row>
     <row r="82">
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
     </row>
     <row r="83">
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
     </row>
     <row r="84">
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
     </row>
     <row r="85">
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
     </row>
     <row r="86">
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
     </row>
     <row r="87">
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
     </row>
     <row r="88">
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
     </row>
     <row r="89">
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
     </row>
     <row r="90">
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
     </row>
     <row r="91">
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
     </row>
     <row r="92">
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
     </row>
     <row r="93">
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
     </row>
     <row r="94">
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
     </row>
     <row r="95">
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
     </row>
     <row r="96">
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
     </row>
     <row r="97">
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
     </row>
     <row r="98">
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
     </row>
     <row r="99">
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
     </row>
     <row r="100">
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
     </row>
     <row r="101">
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
     </row>
     <row r="102">
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
     </row>
     <row r="103">
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
     </row>
     <row r="104">
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
     </row>
     <row r="105">
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
     </row>
     <row r="106">
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
     </row>
     <row r="107">
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
     </row>
     <row r="108">
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
     </row>
     <row r="109">
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
     </row>
     <row r="110">
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
     </row>
     <row r="111">
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
     </row>
     <row r="112">
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="6"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
     </row>
     <row r="113">
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="6"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
     </row>
     <row r="114">
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
     </row>
     <row r="115">
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
-      <c r="I115" s="6"/>
-      <c r="J115" s="6"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
     </row>
     <row r="116">
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
-      <c r="I116" s="6"/>
-      <c r="J116" s="6"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
     </row>
     <row r="117">
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
-      <c r="I117" s="6"/>
-      <c r="J117" s="6"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
     </row>
     <row r="118">
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
-      <c r="J118" s="6"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
     </row>
     <row r="119">
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
-      <c r="J119" s="6"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
     </row>
     <row r="120">
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
-      <c r="J120" s="6"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
     </row>
     <row r="121">
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
-      <c r="I121" s="6"/>
-      <c r="J121" s="6"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
     </row>
     <row r="122">
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6"/>
-      <c r="J122" s="6"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
     </row>
     <row r="123">
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
-      <c r="J123" s="6"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
     </row>
     <row r="124">
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="6"/>
-      <c r="J124" s="6"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
     </row>
     <row r="125">
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="6"/>
-      <c r="J125" s="6"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
     </row>
     <row r="126">
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
-      <c r="J126" s="6"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
     </row>
     <row r="127">
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6"/>
-      <c r="J127" s="6"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
     </row>
     <row r="128">
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
-      <c r="I128" s="6"/>
-      <c r="J128" s="6"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
     </row>
     <row r="129">
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
-      <c r="I129" s="6"/>
-      <c r="J129" s="6"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
     </row>
     <row r="130">
-      <c r="F130" s="6"/>
-      <c r="G130" s="6"/>
-      <c r="H130" s="6"/>
-      <c r="I130" s="6"/>
-      <c r="J130" s="6"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
+      <c r="J130" s="8"/>
     </row>
     <row r="131">
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
-      <c r="J131" s="6"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
     </row>
     <row r="132">
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
-      <c r="I132" s="6"/>
-      <c r="J132" s="6"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
     </row>
     <row r="133">
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
-      <c r="J133" s="6"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
     </row>
     <row r="134">
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
-      <c r="J134" s="6"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
     </row>
     <row r="135">
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
-      <c r="J135" s="6"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
+      <c r="J135" s="8"/>
     </row>
     <row r="136">
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
-      <c r="J136" s="6"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
     </row>
     <row r="137">
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
-      <c r="J137" s="6"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
     </row>
     <row r="138">
-      <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
-      <c r="I138" s="6"/>
-      <c r="J138" s="6"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
+      <c r="J138" s="8"/>
     </row>
     <row r="139">
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
-      <c r="I139" s="6"/>
-      <c r="J139" s="6"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
+      <c r="J139" s="8"/>
     </row>
     <row r="140">
-      <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
     </row>
     <row r="141">
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
-      <c r="I141" s="6"/>
-      <c r="J141" s="6"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
     </row>
     <row r="142">
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
-      <c r="H142" s="6"/>
-      <c r="I142" s="6"/>
-      <c r="J142" s="6"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="8"/>
+      <c r="J142" s="8"/>
     </row>
     <row r="143">
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
     </row>
     <row r="144">
-      <c r="F144" s="6"/>
-      <c r="G144" s="6"/>
-      <c r="H144" s="6"/>
-      <c r="I144" s="6"/>
-      <c r="J144" s="6"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="8"/>
+      <c r="J144" s="8"/>
     </row>
     <row r="145">
-      <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
-      <c r="H145" s="6"/>
-      <c r="I145" s="6"/>
-      <c r="J145" s="6"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
+      <c r="J145" s="8"/>
     </row>
     <row r="146">
-      <c r="F146" s="6"/>
-      <c r="G146" s="6"/>
-      <c r="H146" s="6"/>
-      <c r="I146" s="6"/>
-      <c r="J146" s="6"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
     </row>
     <row r="147">
-      <c r="F147" s="6"/>
-      <c r="G147" s="6"/>
-      <c r="H147" s="6"/>
-      <c r="I147" s="6"/>
-      <c r="J147" s="6"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
+      <c r="J147" s="8"/>
     </row>
     <row r="148">
-      <c r="F148" s="6"/>
-      <c r="G148" s="6"/>
-      <c r="H148" s="6"/>
-      <c r="I148" s="6"/>
-      <c r="J148" s="6"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
     </row>
     <row r="149">
-      <c r="F149" s="6"/>
-      <c r="G149" s="6"/>
-      <c r="H149" s="6"/>
-      <c r="I149" s="6"/>
-      <c r="J149" s="6"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="8"/>
+      <c r="J149" s="8"/>
     </row>
     <row r="150">
-      <c r="F150" s="6"/>
-      <c r="G150" s="6"/>
-      <c r="H150" s="6"/>
-      <c r="I150" s="6"/>
-      <c r="J150" s="6"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="8"/>
+      <c r="I150" s="8"/>
+      <c r="J150" s="8"/>
     </row>
     <row r="151">
-      <c r="F151" s="6"/>
-      <c r="G151" s="6"/>
-      <c r="H151" s="6"/>
-      <c r="I151" s="6"/>
-      <c r="J151" s="6"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="8"/>
+      <c r="J151" s="8"/>
     </row>
     <row r="152">
-      <c r="F152" s="6"/>
-      <c r="G152" s="6"/>
-      <c r="H152" s="6"/>
-      <c r="I152" s="6"/>
-      <c r="J152" s="6"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
+      <c r="J152" s="8"/>
     </row>
     <row r="153">
-      <c r="F153" s="6"/>
-      <c r="G153" s="6"/>
-      <c r="H153" s="6"/>
-      <c r="I153" s="6"/>
-      <c r="J153" s="6"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+      <c r="H153" s="8"/>
+      <c r="I153" s="8"/>
+      <c r="J153" s="8"/>
     </row>
     <row r="154">
-      <c r="F154" s="6"/>
-      <c r="G154" s="6"/>
-      <c r="H154" s="6"/>
-      <c r="I154" s="6"/>
-      <c r="J154" s="6"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+      <c r="H154" s="8"/>
+      <c r="I154" s="8"/>
+      <c r="J154" s="8"/>
     </row>
     <row r="155">
-      <c r="F155" s="6"/>
-      <c r="G155" s="6"/>
-      <c r="H155" s="6"/>
-      <c r="I155" s="6"/>
-      <c r="J155" s="6"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
+      <c r="I155" s="8"/>
+      <c r="J155" s="8"/>
     </row>
     <row r="156">
-      <c r="F156" s="6"/>
-      <c r="G156" s="6"/>
-      <c r="H156" s="6"/>
-      <c r="I156" s="6"/>
-      <c r="J156" s="6"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="8"/>
+      <c r="J156" s="8"/>
     </row>
     <row r="157">
-      <c r="F157" s="6"/>
-      <c r="G157" s="6"/>
-      <c r="H157" s="6"/>
-      <c r="I157" s="6"/>
-      <c r="J157" s="6"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="8"/>
+      <c r="J157" s="8"/>
     </row>
     <row r="158">
-      <c r="F158" s="6"/>
-      <c r="G158" s="6"/>
-      <c r="H158" s="6"/>
-      <c r="I158" s="6"/>
-      <c r="J158" s="6"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="8"/>
+      <c r="J158" s="8"/>
     </row>
     <row r="159">
-      <c r="F159" s="6"/>
-      <c r="G159" s="6"/>
-      <c r="H159" s="6"/>
-      <c r="I159" s="6"/>
-      <c r="J159" s="6"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="8"/>
+      <c r="J159" s="8"/>
     </row>
     <row r="160">
-      <c r="F160" s="6"/>
-      <c r="G160" s="6"/>
-      <c r="H160" s="6"/>
-      <c r="I160" s="6"/>
-      <c r="J160" s="6"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="8"/>
+      <c r="J160" s="8"/>
     </row>
     <row r="161">
-      <c r="F161" s="6"/>
-      <c r="G161" s="6"/>
-      <c r="H161" s="6"/>
-      <c r="I161" s="6"/>
-      <c r="J161" s="6"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="8"/>
+      <c r="J161" s="8"/>
     </row>
     <row r="162">
-      <c r="F162" s="6"/>
-      <c r="G162" s="6"/>
-      <c r="H162" s="6"/>
-      <c r="I162" s="6"/>
-      <c r="J162" s="6"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+      <c r="H162" s="8"/>
+      <c r="I162" s="8"/>
+      <c r="J162" s="8"/>
     </row>
     <row r="163">
-      <c r="F163" s="6"/>
-      <c r="G163" s="6"/>
-      <c r="H163" s="6"/>
-      <c r="I163" s="6"/>
-      <c r="J163" s="6"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="8"/>
+      <c r="J163" s="8"/>
     </row>
     <row r="164">
-      <c r="F164" s="6"/>
-      <c r="G164" s="6"/>
-      <c r="H164" s="6"/>
-      <c r="I164" s="6"/>
-      <c r="J164" s="6"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="8"/>
+      <c r="J164" s="8"/>
     </row>
     <row r="165">
-      <c r="F165" s="6"/>
-      <c r="G165" s="6"/>
-      <c r="H165" s="6"/>
-      <c r="I165" s="6"/>
-      <c r="J165" s="6"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="8"/>
+      <c r="J165" s="8"/>
     </row>
     <row r="166">
-      <c r="F166" s="6"/>
-      <c r="G166" s="6"/>
-      <c r="H166" s="6"/>
-      <c r="I166" s="6"/>
-      <c r="J166" s="6"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="8"/>
+      <c r="J166" s="8"/>
     </row>
     <row r="167">
-      <c r="F167" s="6"/>
-      <c r="G167" s="6"/>
-      <c r="H167" s="6"/>
-      <c r="I167" s="6"/>
-      <c r="J167" s="6"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
+      <c r="H167" s="8"/>
+      <c r="I167" s="8"/>
+      <c r="J167" s="8"/>
     </row>
     <row r="168">
-      <c r="F168" s="6"/>
-      <c r="G168" s="6"/>
-      <c r="H168" s="6"/>
-      <c r="I168" s="6"/>
-      <c r="J168" s="6"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="8"/>
+      <c r="J168" s="8"/>
     </row>
     <row r="169">
-      <c r="F169" s="6"/>
-      <c r="G169" s="6"/>
-      <c r="H169" s="6"/>
-      <c r="I169" s="6"/>
-      <c r="J169" s="6"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
+      <c r="H169" s="8"/>
+      <c r="I169" s="8"/>
+      <c r="J169" s="8"/>
     </row>
     <row r="170">
-      <c r="F170" s="6"/>
-      <c r="G170" s="6"/>
-      <c r="H170" s="6"/>
-      <c r="I170" s="6"/>
-      <c r="J170" s="6"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8"/>
+      <c r="H170" s="8"/>
+      <c r="I170" s="8"/>
+      <c r="J170" s="8"/>
     </row>
     <row r="171">
-      <c r="F171" s="6"/>
-      <c r="G171" s="6"/>
-      <c r="H171" s="6"/>
-      <c r="I171" s="6"/>
-      <c r="J171" s="6"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="8"/>
+      <c r="J171" s="8"/>
     </row>
     <row r="172">
-      <c r="F172" s="6"/>
-      <c r="G172" s="6"/>
-      <c r="H172" s="6"/>
-      <c r="I172" s="6"/>
-      <c r="J172" s="6"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="8"/>
+      <c r="H172" s="8"/>
+      <c r="I172" s="8"/>
+      <c r="J172" s="8"/>
     </row>
     <row r="173">
-      <c r="F173" s="6"/>
-      <c r="G173" s="6"/>
-      <c r="H173" s="6"/>
-      <c r="I173" s="6"/>
-      <c r="J173" s="6"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="8"/>
+      <c r="H173" s="8"/>
+      <c r="I173" s="8"/>
+      <c r="J173" s="8"/>
     </row>
     <row r="174">
-      <c r="F174" s="6"/>
-      <c r="G174" s="6"/>
-      <c r="H174" s="6"/>
-      <c r="I174" s="6"/>
-      <c r="J174" s="6"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8"/>
+      <c r="H174" s="8"/>
+      <c r="I174" s="8"/>
+      <c r="J174" s="8"/>
     </row>
     <row r="175">
-      <c r="F175" s="6"/>
-      <c r="G175" s="6"/>
-      <c r="H175" s="6"/>
-      <c r="I175" s="6"/>
-      <c r="J175" s="6"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
+      <c r="H175" s="8"/>
+      <c r="I175" s="8"/>
+      <c r="J175" s="8"/>
     </row>
     <row r="176">
-      <c r="F176" s="6"/>
-      <c r="G176" s="6"/>
-      <c r="H176" s="6"/>
-      <c r="I176" s="6"/>
-      <c r="J176" s="6"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
+      <c r="H176" s="8"/>
+      <c r="I176" s="8"/>
+      <c r="J176" s="8"/>
     </row>
     <row r="177">
-      <c r="F177" s="6"/>
-      <c r="G177" s="6"/>
-      <c r="H177" s="6"/>
-      <c r="I177" s="6"/>
-      <c r="J177" s="6"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="8"/>
+      <c r="H177" s="8"/>
+      <c r="I177" s="8"/>
+      <c r="J177" s="8"/>
     </row>
     <row r="178">
-      <c r="F178" s="6"/>
-      <c r="G178" s="6"/>
-      <c r="H178" s="6"/>
-      <c r="I178" s="6"/>
-      <c r="J178" s="6"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="8"/>
+      <c r="H178" s="8"/>
+      <c r="I178" s="8"/>
+      <c r="J178" s="8"/>
     </row>
     <row r="179">
-      <c r="F179" s="6"/>
-      <c r="G179" s="6"/>
-      <c r="H179" s="6"/>
-      <c r="I179" s="6"/>
-      <c r="J179" s="6"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="8"/>
+      <c r="H179" s="8"/>
+      <c r="I179" s="8"/>
+      <c r="J179" s="8"/>
     </row>
     <row r="180">
-      <c r="F180" s="6"/>
-      <c r="G180" s="6"/>
-      <c r="H180" s="6"/>
-      <c r="I180" s="6"/>
-      <c r="J180" s="6"/>
+      <c r="F180" s="8"/>
+      <c r="G180" s="8"/>
+      <c r="H180" s="8"/>
+      <c r="I180" s="8"/>
+      <c r="J180" s="8"/>
     </row>
     <row r="181">
-      <c r="F181" s="6"/>
-      <c r="G181" s="6"/>
-      <c r="H181" s="6"/>
-      <c r="I181" s="6"/>
-      <c r="J181" s="6"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="8"/>
+      <c r="H181" s="8"/>
+      <c r="I181" s="8"/>
+      <c r="J181" s="8"/>
     </row>
     <row r="182">
-      <c r="F182" s="6"/>
-      <c r="G182" s="6"/>
-      <c r="H182" s="6"/>
-      <c r="I182" s="6"/>
-      <c r="J182" s="6"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="8"/>
+      <c r="H182" s="8"/>
+      <c r="I182" s="8"/>
+      <c r="J182" s="8"/>
     </row>
     <row r="183">
-      <c r="F183" s="6"/>
-      <c r="G183" s="6"/>
-      <c r="H183" s="6"/>
-      <c r="I183" s="6"/>
-      <c r="J183" s="6"/>
+      <c r="F183" s="8"/>
+      <c r="G183" s="8"/>
+      <c r="H183" s="8"/>
+      <c r="I183" s="8"/>
+      <c r="J183" s="8"/>
     </row>
     <row r="184">
-      <c r="F184" s="6"/>
-      <c r="G184" s="6"/>
-      <c r="H184" s="6"/>
-      <c r="I184" s="6"/>
-      <c r="J184" s="6"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="8"/>
+      <c r="H184" s="8"/>
+      <c r="I184" s="8"/>
+      <c r="J184" s="8"/>
     </row>
     <row r="185">
-      <c r="F185" s="6"/>
-      <c r="G185" s="6"/>
-      <c r="H185" s="6"/>
-      <c r="I185" s="6"/>
-      <c r="J185" s="6"/>
+      <c r="F185" s="8"/>
+      <c r="G185" s="8"/>
+      <c r="H185" s="8"/>
+      <c r="I185" s="8"/>
+      <c r="J185" s="8"/>
     </row>
     <row r="186">
-      <c r="F186" s="6"/>
-      <c r="G186" s="6"/>
-      <c r="H186" s="6"/>
-      <c r="I186" s="6"/>
-      <c r="J186" s="6"/>
+      <c r="F186" s="8"/>
+      <c r="G186" s="8"/>
+      <c r="H186" s="8"/>
+      <c r="I186" s="8"/>
+      <c r="J186" s="8"/>
     </row>
     <row r="187">
-      <c r="F187" s="6"/>
-      <c r="G187" s="6"/>
-      <c r="H187" s="6"/>
-      <c r="I187" s="6"/>
-      <c r="J187" s="6"/>
+      <c r="F187" s="8"/>
+      <c r="G187" s="8"/>
+      <c r="H187" s="8"/>
+      <c r="I187" s="8"/>
+      <c r="J187" s="8"/>
     </row>
     <row r="188">
-      <c r="F188" s="6"/>
-      <c r="G188" s="6"/>
-      <c r="H188" s="6"/>
-      <c r="I188" s="6"/>
-      <c r="J188" s="6"/>
+      <c r="F188" s="8"/>
+      <c r="G188" s="8"/>
+      <c r="H188" s="8"/>
+      <c r="I188" s="8"/>
+      <c r="J188" s="8"/>
     </row>
     <row r="189">
-      <c r="F189" s="6"/>
-      <c r="G189" s="6"/>
-      <c r="H189" s="6"/>
-      <c r="I189" s="6"/>
-      <c r="J189" s="6"/>
+      <c r="F189" s="8"/>
+      <c r="G189" s="8"/>
+      <c r="H189" s="8"/>
+      <c r="I189" s="8"/>
+      <c r="J189" s="8"/>
     </row>
     <row r="190">
-      <c r="F190" s="6"/>
-      <c r="G190" s="6"/>
-      <c r="H190" s="6"/>
-      <c r="I190" s="6"/>
-      <c r="J190" s="6"/>
+      <c r="F190" s="8"/>
+      <c r="G190" s="8"/>
+      <c r="H190" s="8"/>
+      <c r="I190" s="8"/>
+      <c r="J190" s="8"/>
     </row>
     <row r="191">
-      <c r="F191" s="6"/>
-      <c r="G191" s="6"/>
-      <c r="H191" s="6"/>
-      <c r="I191" s="6"/>
-      <c r="J191" s="6"/>
+      <c r="F191" s="8"/>
+      <c r="G191" s="8"/>
+      <c r="H191" s="8"/>
+      <c r="I191" s="8"/>
+      <c r="J191" s="8"/>
     </row>
     <row r="192">
-      <c r="F192" s="6"/>
-      <c r="G192" s="6"/>
-      <c r="H192" s="6"/>
-      <c r="I192" s="6"/>
-      <c r="J192" s="6"/>
+      <c r="F192" s="8"/>
+      <c r="G192" s="8"/>
+      <c r="H192" s="8"/>
+      <c r="I192" s="8"/>
+      <c r="J192" s="8"/>
     </row>
     <row r="193">
-      <c r="F193" s="6"/>
-      <c r="G193" s="6"/>
-      <c r="H193" s="6"/>
-      <c r="I193" s="6"/>
-      <c r="J193" s="6"/>
+      <c r="F193" s="8"/>
+      <c r="G193" s="8"/>
+      <c r="H193" s="8"/>
+      <c r="I193" s="8"/>
+      <c r="J193" s="8"/>
     </row>
     <row r="194">
-      <c r="F194" s="6"/>
-      <c r="G194" s="6"/>
-      <c r="H194" s="6"/>
-      <c r="I194" s="6"/>
-      <c r="J194" s="6"/>
+      <c r="F194" s="8"/>
+      <c r="G194" s="8"/>
+      <c r="H194" s="8"/>
+      <c r="I194" s="8"/>
+      <c r="J194" s="8"/>
     </row>
     <row r="195">
-      <c r="F195" s="6"/>
-      <c r="G195" s="6"/>
-      <c r="H195" s="6"/>
-      <c r="I195" s="6"/>
-      <c r="J195" s="6"/>
+      <c r="F195" s="8"/>
+      <c r="G195" s="8"/>
+      <c r="H195" s="8"/>
+      <c r="I195" s="8"/>
+      <c r="J195" s="8"/>
     </row>
     <row r="196">
-      <c r="F196" s="6"/>
-      <c r="G196" s="6"/>
-      <c r="H196" s="6"/>
-      <c r="I196" s="6"/>
-      <c r="J196" s="6"/>
+      <c r="F196" s="8"/>
+      <c r="G196" s="8"/>
+      <c r="H196" s="8"/>
+      <c r="I196" s="8"/>
+      <c r="J196" s="8"/>
     </row>
     <row r="197">
-      <c r="F197" s="6"/>
-      <c r="G197" s="6"/>
-      <c r="H197" s="6"/>
-      <c r="I197" s="6"/>
-      <c r="J197" s="6"/>
+      <c r="F197" s="8"/>
+      <c r="G197" s="8"/>
+      <c r="H197" s="8"/>
+      <c r="I197" s="8"/>
+      <c r="J197" s="8"/>
     </row>
     <row r="198">
-      <c r="F198" s="6"/>
-      <c r="G198" s="6"/>
-      <c r="H198" s="6"/>
-      <c r="I198" s="6"/>
-      <c r="J198" s="6"/>
+      <c r="F198" s="8"/>
+      <c r="G198" s="8"/>
+      <c r="H198" s="8"/>
+      <c r="I198" s="8"/>
+      <c r="J198" s="8"/>
     </row>
     <row r="199">
-      <c r="F199" s="6"/>
-      <c r="G199" s="6"/>
-      <c r="H199" s="6"/>
-      <c r="I199" s="6"/>
-      <c r="J199" s="6"/>
+      <c r="F199" s="8"/>
+      <c r="G199" s="8"/>
+      <c r="H199" s="8"/>
+      <c r="I199" s="8"/>
+      <c r="J199" s="8"/>
     </row>
     <row r="200">
-      <c r="F200" s="6"/>
-      <c r="G200" s="6"/>
-      <c r="H200" s="6"/>
-      <c r="I200" s="6"/>
-      <c r="J200" s="6"/>
+      <c r="F200" s="8"/>
+      <c r="G200" s="8"/>
+      <c r="H200" s="8"/>
+      <c r="I200" s="8"/>
+      <c r="J200" s="8"/>
     </row>
     <row r="201">
-      <c r="F201" s="6"/>
-      <c r="G201" s="6"/>
-      <c r="H201" s="6"/>
-      <c r="I201" s="6"/>
-      <c r="J201" s="6"/>
+      <c r="F201" s="8"/>
+      <c r="G201" s="8"/>
+      <c r="H201" s="8"/>
+      <c r="I201" s="8"/>
+      <c r="J201" s="8"/>
     </row>
     <row r="202">
-      <c r="F202" s="6"/>
-      <c r="G202" s="6"/>
-      <c r="H202" s="6"/>
-      <c r="I202" s="6"/>
-      <c r="J202" s="6"/>
+      <c r="F202" s="8"/>
+      <c r="G202" s="8"/>
+      <c r="H202" s="8"/>
+      <c r="I202" s="8"/>
+      <c r="J202" s="8"/>
     </row>
     <row r="203">
-      <c r="F203" s="6"/>
-      <c r="G203" s="6"/>
-      <c r="H203" s="6"/>
-      <c r="I203" s="6"/>
-      <c r="J203" s="6"/>
+      <c r="F203" s="8"/>
+      <c r="G203" s="8"/>
+      <c r="H203" s="8"/>
+      <c r="I203" s="8"/>
+      <c r="J203" s="8"/>
     </row>
     <row r="204">
-      <c r="F204" s="6"/>
-      <c r="G204" s="6"/>
-      <c r="H204" s="6"/>
-      <c r="I204" s="6"/>
-      <c r="J204" s="6"/>
+      <c r="F204" s="8"/>
+      <c r="G204" s="8"/>
+      <c r="H204" s="8"/>
+      <c r="I204" s="8"/>
+      <c r="J204" s="8"/>
     </row>
     <row r="205">
-      <c r="F205" s="6"/>
-      <c r="G205" s="6"/>
-      <c r="H205" s="6"/>
-      <c r="I205" s="6"/>
-      <c r="J205" s="6"/>
+      <c r="F205" s="8"/>
+      <c r="G205" s="8"/>
+      <c r="H205" s="8"/>
+      <c r="I205" s="8"/>
+      <c r="J205" s="8"/>
     </row>
     <row r="206">
-      <c r="F206" s="6"/>
-      <c r="G206" s="6"/>
-      <c r="H206" s="6"/>
-      <c r="I206" s="6"/>
-      <c r="J206" s="6"/>
+      <c r="F206" s="8"/>
+      <c r="G206" s="8"/>
+      <c r="H206" s="8"/>
+      <c r="I206" s="8"/>
+      <c r="J206" s="8"/>
     </row>
     <row r="207">
-      <c r="F207" s="6"/>
-      <c r="G207" s="6"/>
-      <c r="H207" s="6"/>
-      <c r="I207" s="6"/>
-      <c r="J207" s="6"/>
+      <c r="F207" s="8"/>
+      <c r="G207" s="8"/>
+      <c r="H207" s="8"/>
+      <c r="I207" s="8"/>
+      <c r="J207" s="8"/>
     </row>
     <row r="208">
-      <c r="F208" s="6"/>
-      <c r="G208" s="6"/>
-      <c r="H208" s="6"/>
-      <c r="I208" s="6"/>
-      <c r="J208" s="6"/>
+      <c r="F208" s="8"/>
+      <c r="G208" s="8"/>
+      <c r="H208" s="8"/>
+      <c r="I208" s="8"/>
+      <c r="J208" s="8"/>
     </row>
     <row r="209">
-      <c r="F209" s="6"/>
-      <c r="G209" s="6"/>
-      <c r="H209" s="6"/>
-      <c r="I209" s="6"/>
-      <c r="J209" s="6"/>
+      <c r="F209" s="8"/>
+      <c r="G209" s="8"/>
+      <c r="H209" s="8"/>
+      <c r="I209" s="8"/>
+      <c r="J209" s="8"/>
     </row>
     <row r="210">
-      <c r="F210" s="6"/>
-      <c r="G210" s="6"/>
-      <c r="H210" s="6"/>
-      <c r="I210" s="6"/>
-      <c r="J210" s="6"/>
+      <c r="F210" s="8"/>
+      <c r="G210" s="8"/>
+      <c r="H210" s="8"/>
+      <c r="I210" s="8"/>
+      <c r="J210" s="8"/>
     </row>
     <row r="211">
-      <c r="F211" s="6"/>
-      <c r="G211" s="6"/>
-      <c r="H211" s="6"/>
-      <c r="I211" s="6"/>
-      <c r="J211" s="6"/>
+      <c r="F211" s="8"/>
+      <c r="G211" s="8"/>
+      <c r="H211" s="8"/>
+      <c r="I211" s="8"/>
+      <c r="J211" s="8"/>
     </row>
     <row r="212">
-      <c r="F212" s="6"/>
-      <c r="G212" s="6"/>
-      <c r="H212" s="6"/>
-      <c r="I212" s="6"/>
-      <c r="J212" s="6"/>
+      <c r="F212" s="8"/>
+      <c r="G212" s="8"/>
+      <c r="H212" s="8"/>
+      <c r="I212" s="8"/>
+      <c r="J212" s="8"/>
     </row>
     <row r="213">
-      <c r="F213" s="6"/>
-      <c r="G213" s="6"/>
-      <c r="H213" s="6"/>
-      <c r="I213" s="6"/>
-      <c r="J213" s="6"/>
+      <c r="F213" s="8"/>
+      <c r="G213" s="8"/>
+      <c r="H213" s="8"/>
+      <c r="I213" s="8"/>
+      <c r="J213" s="8"/>
     </row>
     <row r="214"/>
   </sheetData>
-  <sortState ref="A1:N47" columnSort="0">
-    <sortCondition sortBy="value" descending="0" ref="I1:I47"/>
+  <sortState ref="A2:O27" columnSort="0">
+    <sortCondition sortBy="value" descending="0" ref="I2:I27"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="P2:Z11"/>
+    <mergeCell ref="Q2:AA11"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
